--- a/sampledata 1 1 1.xlsx
+++ b/sampledata 1 1 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NABADE\Desktop\VoucherDashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATABASU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0270F78E-6241-466E-8DE2-5081EE2178A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0E18F6-573A-4468-B798-732FE970D9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{25E2111C-18F7-40FF-84B6-4FD9B2DF494C}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,9 +1236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1276,7 +1276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1382,7 +1382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1524,7 +1524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D237AA-0607-4C05-BE5C-5C445F9992D7}">
   <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="E327" sqref="E327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,7 +1544,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1560,7 +1560,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1577,9 +1577,8 @@
       <c r="D2" s="2">
         <v>45264</v>
       </c>
-      <c r="E2" s="2">
-        <f>DATE(YEAR(D2), MONTH(D2) + 4, DAY(D2))</f>
-        <v>45386</v>
+      <c r="E2" s="9">
+        <v>45656</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1595,9 +1594,8 @@
       <c r="D3" s="2">
         <v>45295</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3" si="0">DATE(YEAR(D3), MONTH(D3) + 4, DAY(D3))</f>
-        <v>45416</v>
+      <c r="E3" s="9">
+        <v>45656</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1613,9 +1611,8 @@
       <c r="D4" s="2">
         <v>45264</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4" si="1">DATE(YEAR(D4), MONTH(D4) + 4, DAY(D4))</f>
-        <v>45386</v>
+      <c r="E4" s="9">
+        <v>45656</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1631,9 +1628,8 @@
       <c r="D5" s="2">
         <v>45264</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5" si="2">DATE(YEAR(D5), MONTH(D5) + 4, DAY(D5))</f>
-        <v>45386</v>
+      <c r="E5" s="9">
+        <v>45657</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1649,9 +1645,8 @@
       <c r="D6" s="2">
         <v>45264</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6" si="3">DATE(YEAR(D6), MONTH(D6) + 4, DAY(D6))</f>
-        <v>45386</v>
+      <c r="E6" s="9">
+        <v>45658</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1667,9 +1662,8 @@
       <c r="D7" s="2">
         <v>45264</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7" si="4">DATE(YEAR(D7), MONTH(D7) + 4, DAY(D7))</f>
-        <v>45386</v>
+      <c r="E7" s="9">
+        <v>45659</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1685,9 +1679,8 @@
       <c r="D8" s="2">
         <v>45264</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8" si="5">DATE(YEAR(D8), MONTH(D8) + 4, DAY(D8))</f>
-        <v>45386</v>
+      <c r="E8" s="9">
+        <v>45660</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1703,9 +1696,8 @@
       <c r="D9" s="2">
         <v>45295</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9" si="6">DATE(YEAR(D9), MONTH(D9) + 4, DAY(D9))</f>
-        <v>45416</v>
+      <c r="E9" s="9">
+        <v>45661</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1721,9 +1713,8 @@
       <c r="D10" s="2">
         <v>45295</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10" si="7">DATE(YEAR(D10), MONTH(D10) + 4, DAY(D10))</f>
-        <v>45416</v>
+      <c r="E10" s="9">
+        <v>45662</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1739,9 +1730,8 @@
       <c r="D11" s="2">
         <v>45295</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" ref="E11" si="8">DATE(YEAR(D11), MONTH(D11) + 4, DAY(D11))</f>
-        <v>45416</v>
+      <c r="E11" s="9">
+        <v>45663</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1757,9 +1747,8 @@
       <c r="D12" s="2">
         <v>45295</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" ref="E12" si="9">DATE(YEAR(D12), MONTH(D12) + 4, DAY(D12))</f>
-        <v>45416</v>
+      <c r="E12" s="9">
+        <v>45664</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1775,9 +1764,8 @@
       <c r="D13" s="2">
         <v>45295</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13" si="10">DATE(YEAR(D13), MONTH(D13) + 4, DAY(D13))</f>
-        <v>45416</v>
+      <c r="E13" s="9">
+        <v>45665</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,9 +1781,8 @@
       <c r="D14" s="2">
         <v>45295</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14" si="11">DATE(YEAR(D14), MONTH(D14) + 4, DAY(D14))</f>
-        <v>45416</v>
+      <c r="E14" s="9">
+        <v>45666</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1811,9 +1798,8 @@
       <c r="D15" s="2">
         <v>45295</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" ref="E15" si="12">DATE(YEAR(D15), MONTH(D15) + 4, DAY(D15))</f>
-        <v>45416</v>
+      <c r="E15" s="9">
+        <v>45667</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1829,9 +1815,8 @@
       <c r="D16" s="2">
         <v>45295</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16" si="13">DATE(YEAR(D16), MONTH(D16) + 4, DAY(D16))</f>
-        <v>45416</v>
+      <c r="E16" s="9">
+        <v>45668</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1847,9 +1832,8 @@
       <c r="D17" s="2">
         <v>45295</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17" si="14">DATE(YEAR(D17), MONTH(D17) + 4, DAY(D17))</f>
-        <v>45416</v>
+      <c r="E17" s="9">
+        <v>45669</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1865,9 +1849,8 @@
       <c r="D18" s="2">
         <v>45295</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18" si="15">DATE(YEAR(D18), MONTH(D18) + 4, DAY(D18))</f>
-        <v>45416</v>
+      <c r="E18" s="9">
+        <v>45670</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1883,9 +1866,8 @@
       <c r="D19" s="2">
         <v>45295</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" ref="E19" si="16">DATE(YEAR(D19), MONTH(D19) + 4, DAY(D19))</f>
-        <v>45416</v>
+      <c r="E19" s="9">
+        <v>45671</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1901,9 +1883,8 @@
       <c r="D20" s="2">
         <v>45295</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" ref="E20" si="17">DATE(YEAR(D20), MONTH(D20) + 4, DAY(D20))</f>
-        <v>45416</v>
+      <c r="E20" s="9">
+        <v>45672</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1919,9 +1900,8 @@
       <c r="D21" s="2">
         <v>45296</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21" si="18">DATE(YEAR(D21), MONTH(D21) + 4, DAY(D21))</f>
-        <v>45417</v>
+      <c r="E21" s="9">
+        <v>45673</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1937,9 +1917,8 @@
       <c r="D22" s="2">
         <v>45296</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22" si="19">DATE(YEAR(D22), MONTH(D22) + 4, DAY(D22))</f>
-        <v>45417</v>
+      <c r="E22" s="9">
+        <v>45674</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1955,9 +1934,8 @@
       <c r="D23" s="2">
         <v>45296</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23" si="20">DATE(YEAR(D23), MONTH(D23) + 4, DAY(D23))</f>
-        <v>45417</v>
+      <c r="E23" s="9">
+        <v>45675</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1973,9 +1951,8 @@
       <c r="D24" s="2">
         <v>45296</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24" si="21">DATE(YEAR(D24), MONTH(D24) + 4, DAY(D24))</f>
-        <v>45417</v>
+      <c r="E24" s="9">
+        <v>45676</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1991,9 +1968,8 @@
       <c r="D25" s="2">
         <v>45296</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" ref="E25" si="22">DATE(YEAR(D25), MONTH(D25) + 4, DAY(D25))</f>
-        <v>45417</v>
+      <c r="E25" s="9">
+        <v>45677</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -2009,9 +1985,8 @@
       <c r="D26" s="2">
         <v>45296</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" ref="E26" si="23">DATE(YEAR(D26), MONTH(D26) + 4, DAY(D26))</f>
-        <v>45417</v>
+      <c r="E26" s="9">
+        <v>45678</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -2027,9 +2002,8 @@
       <c r="D27" s="2">
         <v>45296</v>
       </c>
-      <c r="E27" s="2">
-        <f t="shared" ref="E27" si="24">DATE(YEAR(D27), MONTH(D27) + 4, DAY(D27))</f>
-        <v>45417</v>
+      <c r="E27" s="9">
+        <v>45679</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -2045,9 +2019,8 @@
       <c r="D28" s="2">
         <v>45296</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28" si="25">DATE(YEAR(D28), MONTH(D28) + 4, DAY(D28))</f>
-        <v>45417</v>
+      <c r="E28" s="9">
+        <v>45680</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -2063,9 +2036,8 @@
       <c r="D29" s="2">
         <v>45296</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" ref="E29" si="26">DATE(YEAR(D29), MONTH(D29) + 4, DAY(D29))</f>
-        <v>45417</v>
+      <c r="E29" s="9">
+        <v>45681</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -2081,9 +2053,8 @@
       <c r="D30" s="2">
         <v>45296</v>
       </c>
-      <c r="E30" s="2">
-        <f t="shared" ref="E30" si="27">DATE(YEAR(D30), MONTH(D30) + 4, DAY(D30))</f>
-        <v>45417</v>
+      <c r="E30" s="9">
+        <v>45682</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2099,9 +2070,8 @@
       <c r="D31" s="2">
         <v>45296</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" ref="E31" si="28">DATE(YEAR(D31), MONTH(D31) + 4, DAY(D31))</f>
-        <v>45417</v>
+      <c r="E31" s="9">
+        <v>45683</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2117,9 +2087,8 @@
       <c r="D32" s="2">
         <v>45296</v>
       </c>
-      <c r="E32" s="2">
-        <f t="shared" ref="E32" si="29">DATE(YEAR(D32), MONTH(D32) + 4, DAY(D32))</f>
-        <v>45417</v>
+      <c r="E32" s="9">
+        <v>45684</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2135,9 +2104,8 @@
       <c r="D33" s="2">
         <v>45296</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33" si="30">DATE(YEAR(D33), MONTH(D33) + 4, DAY(D33))</f>
-        <v>45417</v>
+      <c r="E33" s="9">
+        <v>45685</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -2153,9 +2121,8 @@
       <c r="D34" s="2">
         <v>45296</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34" si="31">DATE(YEAR(D34), MONTH(D34) + 4, DAY(D34))</f>
-        <v>45417</v>
+      <c r="E34" s="9">
+        <v>45686</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -2171,9 +2138,8 @@
       <c r="D35" s="2">
         <v>45296</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" ref="E35" si="32">DATE(YEAR(D35), MONTH(D35) + 4, DAY(D35))</f>
-        <v>45417</v>
+      <c r="E35" s="9">
+        <v>45687</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2189,9 +2155,8 @@
       <c r="D36" s="2">
         <v>45296</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" ref="E36" si="33">DATE(YEAR(D36), MONTH(D36) + 4, DAY(D36))</f>
-        <v>45417</v>
+      <c r="E36" s="9">
+        <v>45688</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2207,9 +2172,8 @@
       <c r="D37" s="2">
         <v>45297</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" ref="E37" si="34">DATE(YEAR(D37), MONTH(D37) + 4, DAY(D37))</f>
-        <v>45418</v>
+      <c r="E37" s="9">
+        <v>45689</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2225,9 +2189,8 @@
       <c r="D38" s="2">
         <v>45297</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" ref="E38" si="35">DATE(YEAR(D38), MONTH(D38) + 4, DAY(D38))</f>
-        <v>45418</v>
+      <c r="E38" s="9">
+        <v>45690</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2243,9 +2206,8 @@
       <c r="D39" s="2">
         <v>45297</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39" si="36">DATE(YEAR(D39), MONTH(D39) + 4, DAY(D39))</f>
-        <v>45418</v>
+      <c r="E39" s="9">
+        <v>45691</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2261,9 +2223,8 @@
       <c r="D40" s="2">
         <v>45297</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" ref="E40" si="37">DATE(YEAR(D40), MONTH(D40) + 4, DAY(D40))</f>
-        <v>45418</v>
+      <c r="E40" s="9">
+        <v>45692</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2279,9 +2240,8 @@
       <c r="D41" s="2">
         <v>45297</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" ref="E41" si="38">DATE(YEAR(D41), MONTH(D41) + 4, DAY(D41))</f>
-        <v>45418</v>
+      <c r="E41" s="9">
+        <v>45693</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2297,9 +2257,8 @@
       <c r="D42" s="2">
         <v>45297</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42" si="39">DATE(YEAR(D42), MONTH(D42) + 4, DAY(D42))</f>
-        <v>45418</v>
+      <c r="E42" s="9">
+        <v>45694</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2315,9 +2274,8 @@
       <c r="D43" s="2">
         <v>45297</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" ref="E43" si="40">DATE(YEAR(D43), MONTH(D43) + 4, DAY(D43))</f>
-        <v>45418</v>
+      <c r="E43" s="9">
+        <v>45695</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2333,9 +2291,8 @@
       <c r="D44" s="2">
         <v>45297</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" ref="E44" si="41">DATE(YEAR(D44), MONTH(D44) + 4, DAY(D44))</f>
-        <v>45418</v>
+      <c r="E44" s="9">
+        <v>45696</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2351,9 +2308,8 @@
       <c r="D45" s="2">
         <v>45297</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" ref="E45" si="42">DATE(YEAR(D45), MONTH(D45) + 4, DAY(D45))</f>
-        <v>45418</v>
+      <c r="E45" s="9">
+        <v>45697</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2369,9 +2325,8 @@
       <c r="D46" s="2">
         <v>45297</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" ref="E46" si="43">DATE(YEAR(D46), MONTH(D46) + 4, DAY(D46))</f>
-        <v>45418</v>
+      <c r="E46" s="9">
+        <v>45698</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2387,9 +2342,8 @@
       <c r="D47" s="2">
         <v>45297</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" ref="E47" si="44">DATE(YEAR(D47), MONTH(D47) + 4, DAY(D47))</f>
-        <v>45418</v>
+      <c r="E47" s="9">
+        <v>45699</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2405,9 +2359,8 @@
       <c r="D48" s="2">
         <v>45297</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" ref="E48" si="45">DATE(YEAR(D48), MONTH(D48) + 4, DAY(D48))</f>
-        <v>45418</v>
+      <c r="E48" s="9">
+        <v>45700</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2423,9 +2376,8 @@
       <c r="D49" s="2">
         <v>45297</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" ref="E49" si="46">DATE(YEAR(D49), MONTH(D49) + 4, DAY(D49))</f>
-        <v>45418</v>
+      <c r="E49" s="9">
+        <v>45701</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2441,9 +2393,8 @@
       <c r="D50" s="2">
         <v>45297</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" ref="E50" si="47">DATE(YEAR(D50), MONTH(D50) + 4, DAY(D50))</f>
-        <v>45418</v>
+      <c r="E50" s="9">
+        <v>45702</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2459,9 +2410,8 @@
       <c r="D51" s="2">
         <v>45297</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" ref="E51" si="48">DATE(YEAR(D51), MONTH(D51) + 4, DAY(D51))</f>
-        <v>45418</v>
+      <c r="E51" s="9">
+        <v>45703</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2477,9 +2427,8 @@
       <c r="D52" s="2">
         <v>45297</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" ref="E52" si="49">DATE(YEAR(D52), MONTH(D52) + 4, DAY(D52))</f>
-        <v>45418</v>
+      <c r="E52" s="9">
+        <v>45704</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2495,9 +2444,8 @@
       <c r="D53" s="2">
         <v>45297</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" ref="E53" si="50">DATE(YEAR(D53), MONTH(D53) + 4, DAY(D53))</f>
-        <v>45418</v>
+      <c r="E53" s="9">
+        <v>45705</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2513,9 +2461,8 @@
       <c r="D54" s="2">
         <v>45297</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" ref="E54" si="51">DATE(YEAR(D54), MONTH(D54) + 4, DAY(D54))</f>
-        <v>45418</v>
+      <c r="E54" s="9">
+        <v>45706</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2531,9 +2478,8 @@
       <c r="D55" s="2">
         <v>45297</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" ref="E55" si="52">DATE(YEAR(D55), MONTH(D55) + 4, DAY(D55))</f>
-        <v>45418</v>
+      <c r="E55" s="9">
+        <v>45707</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2549,9 +2495,8 @@
       <c r="D56" s="2">
         <v>45297</v>
       </c>
-      <c r="E56" s="2">
-        <f t="shared" ref="E56" si="53">DATE(YEAR(D56), MONTH(D56) + 4, DAY(D56))</f>
-        <v>45418</v>
+      <c r="E56" s="9">
+        <v>45708</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2567,9 +2512,8 @@
       <c r="D57" s="2">
         <v>45297</v>
       </c>
-      <c r="E57" s="2">
-        <f t="shared" ref="E57" si="54">DATE(YEAR(D57), MONTH(D57) + 4, DAY(D57))</f>
-        <v>45418</v>
+      <c r="E57" s="9">
+        <v>45709</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2585,9 +2529,8 @@
       <c r="D58" s="2">
         <v>45297</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" ref="E58" si="55">DATE(YEAR(D58), MONTH(D58) + 4, DAY(D58))</f>
-        <v>45418</v>
+      <c r="E58" s="9">
+        <v>45710</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2603,9 +2546,8 @@
       <c r="D59" s="2">
         <v>45297</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" ref="E59" si="56">DATE(YEAR(D59), MONTH(D59) + 4, DAY(D59))</f>
-        <v>45418</v>
+      <c r="E59" s="9">
+        <v>45711</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2621,9 +2563,8 @@
       <c r="D60" s="2">
         <v>45297</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" ref="E60" si="57">DATE(YEAR(D60), MONTH(D60) + 4, DAY(D60))</f>
-        <v>45418</v>
+      <c r="E60" s="9">
+        <v>45712</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2639,9 +2580,8 @@
       <c r="D61" s="2">
         <v>45297</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" ref="E61" si="58">DATE(YEAR(D61), MONTH(D61) + 4, DAY(D61))</f>
-        <v>45418</v>
+      <c r="E61" s="9">
+        <v>45713</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2657,9 +2597,8 @@
       <c r="D62" s="2">
         <v>45297</v>
       </c>
-      <c r="E62" s="2">
-        <f t="shared" ref="E62" si="59">DATE(YEAR(D62), MONTH(D62) + 4, DAY(D62))</f>
-        <v>45418</v>
+      <c r="E62" s="9">
+        <v>45714</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2675,9 +2614,8 @@
       <c r="D63" s="2">
         <v>45298</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" ref="E63" si="60">DATE(YEAR(D63), MONTH(D63) + 4, DAY(D63))</f>
-        <v>45419</v>
+      <c r="E63" s="9">
+        <v>45715</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2693,9 +2631,8 @@
       <c r="D64" s="2">
         <v>45298</v>
       </c>
-      <c r="E64" s="2">
-        <f t="shared" ref="E64" si="61">DATE(YEAR(D64), MONTH(D64) + 4, DAY(D64))</f>
-        <v>45419</v>
+      <c r="E64" s="9">
+        <v>45716</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2711,9 +2648,8 @@
       <c r="D65" s="2">
         <v>45298</v>
       </c>
-      <c r="E65" s="2">
-        <f t="shared" ref="E65" si="62">DATE(YEAR(D65), MONTH(D65) + 4, DAY(D65))</f>
-        <v>45419</v>
+      <c r="E65" s="9">
+        <v>45717</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2729,9 +2665,8 @@
       <c r="D66" s="2">
         <v>45298</v>
       </c>
-      <c r="E66" s="2">
-        <f t="shared" ref="E66" si="63">DATE(YEAR(D66), MONTH(D66) + 4, DAY(D66))</f>
-        <v>45419</v>
+      <c r="E66" s="9">
+        <v>45718</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2747,9 +2682,8 @@
       <c r="D67" s="2">
         <v>45298</v>
       </c>
-      <c r="E67" s="2">
-        <f t="shared" ref="E67" si="64">DATE(YEAR(D67), MONTH(D67) + 4, DAY(D67))</f>
-        <v>45419</v>
+      <c r="E67" s="9">
+        <v>45719</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2765,9 +2699,8 @@
       <c r="D68" s="2">
         <v>45298</v>
       </c>
-      <c r="E68" s="2">
-        <f t="shared" ref="E68" si="65">DATE(YEAR(D68), MONTH(D68) + 4, DAY(D68))</f>
-        <v>45419</v>
+      <c r="E68" s="9">
+        <v>45720</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2783,9 +2716,8 @@
       <c r="D69" s="2">
         <v>45298</v>
       </c>
-      <c r="E69" s="2">
-        <f t="shared" ref="E69" si="66">DATE(YEAR(D69), MONTH(D69) + 4, DAY(D69))</f>
-        <v>45419</v>
+      <c r="E69" s="9">
+        <v>45721</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2801,9 +2733,8 @@
       <c r="D70" s="2">
         <v>45298</v>
       </c>
-      <c r="E70" s="2">
-        <f t="shared" ref="E70" si="67">DATE(YEAR(D70), MONTH(D70) + 4, DAY(D70))</f>
-        <v>45419</v>
+      <c r="E70" s="9">
+        <v>45722</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2819,9 +2750,8 @@
       <c r="D71" s="2">
         <v>45297</v>
       </c>
-      <c r="E71" s="2">
-        <f t="shared" ref="E71" si="68">DATE(YEAR(D71), MONTH(D71) + 4, DAY(D71))</f>
-        <v>45418</v>
+      <c r="E71" s="9">
+        <v>45723</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2837,9 +2767,8 @@
       <c r="D72" s="2">
         <v>45297</v>
       </c>
-      <c r="E72" s="2">
-        <f t="shared" ref="E72" si="69">DATE(YEAR(D72), MONTH(D72) + 4, DAY(D72))</f>
-        <v>45418</v>
+      <c r="E72" s="9">
+        <v>45724</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2855,9 +2784,8 @@
       <c r="D73" s="2">
         <v>45297</v>
       </c>
-      <c r="E73" s="2">
-        <f t="shared" ref="E73" si="70">DATE(YEAR(D73), MONTH(D73) + 4, DAY(D73))</f>
-        <v>45418</v>
+      <c r="E73" s="9">
+        <v>45725</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2873,9 +2801,8 @@
       <c r="D74" s="2">
         <v>45297</v>
       </c>
-      <c r="E74" s="2">
-        <f t="shared" ref="E74" si="71">DATE(YEAR(D74), MONTH(D74) + 4, DAY(D74))</f>
-        <v>45418</v>
+      <c r="E74" s="9">
+        <v>45726</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2891,9 +2818,8 @@
       <c r="D75" s="2">
         <v>45297</v>
       </c>
-      <c r="E75" s="2">
-        <f t="shared" ref="E75" si="72">DATE(YEAR(D75), MONTH(D75) + 4, DAY(D75))</f>
-        <v>45418</v>
+      <c r="E75" s="9">
+        <v>45727</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2909,9 +2835,8 @@
       <c r="D76" s="2">
         <v>45299</v>
       </c>
-      <c r="E76" s="2">
-        <f t="shared" ref="E76" si="73">DATE(YEAR(D76), MONTH(D76) + 4, DAY(D76))</f>
-        <v>45420</v>
+      <c r="E76" s="9">
+        <v>45728</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2927,9 +2852,8 @@
       <c r="D77" s="2">
         <v>45299</v>
       </c>
-      <c r="E77" s="2">
-        <f t="shared" ref="E77" si="74">DATE(YEAR(D77), MONTH(D77) + 4, DAY(D77))</f>
-        <v>45420</v>
+      <c r="E77" s="9">
+        <v>45729</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2945,9 +2869,8 @@
       <c r="D78" s="2">
         <v>45299</v>
       </c>
-      <c r="E78" s="2">
-        <f t="shared" ref="E78" si="75">DATE(YEAR(D78), MONTH(D78) + 4, DAY(D78))</f>
-        <v>45420</v>
+      <c r="E78" s="9">
+        <v>45730</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -2963,9 +2886,8 @@
       <c r="D79" s="2">
         <v>45299</v>
       </c>
-      <c r="E79" s="2">
-        <f t="shared" ref="E79" si="76">DATE(YEAR(D79), MONTH(D79) + 4, DAY(D79))</f>
-        <v>45420</v>
+      <c r="E79" s="9">
+        <v>45731</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2981,9 +2903,8 @@
       <c r="D80" s="2">
         <v>45299</v>
       </c>
-      <c r="E80" s="2">
-        <f t="shared" ref="E80" si="77">DATE(YEAR(D80), MONTH(D80) + 4, DAY(D80))</f>
-        <v>45420</v>
+      <c r="E80" s="9">
+        <v>45732</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2999,9 +2920,8 @@
       <c r="D81" s="2">
         <v>45300</v>
       </c>
-      <c r="E81" s="2">
-        <f t="shared" ref="E81" si="78">DATE(YEAR(D81), MONTH(D81) + 4, DAY(D81))</f>
-        <v>45421</v>
+      <c r="E81" s="9">
+        <v>45733</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -3017,9 +2937,8 @@
       <c r="D82" s="2">
         <v>45300</v>
       </c>
-      <c r="E82" s="2">
-        <f t="shared" ref="E82" si="79">DATE(YEAR(D82), MONTH(D82) + 4, DAY(D82))</f>
-        <v>45421</v>
+      <c r="E82" s="9">
+        <v>45734</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -3035,9 +2954,8 @@
       <c r="D83" s="2">
         <v>45300</v>
       </c>
-      <c r="E83" s="2">
-        <f t="shared" ref="E83" si="80">DATE(YEAR(D83), MONTH(D83) + 4, DAY(D83))</f>
-        <v>45421</v>
+      <c r="E83" s="9">
+        <v>45735</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -3053,9 +2971,8 @@
       <c r="D84" s="2">
         <v>45300</v>
       </c>
-      <c r="E84" s="2">
-        <f t="shared" ref="E84" si="81">DATE(YEAR(D84), MONTH(D84) + 4, DAY(D84))</f>
-        <v>45421</v>
+      <c r="E84" s="9">
+        <v>45736</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -3071,9 +2988,8 @@
       <c r="D85" s="2">
         <v>45300</v>
       </c>
-      <c r="E85" s="2">
-        <f t="shared" ref="E85" si="82">DATE(YEAR(D85), MONTH(D85) + 4, DAY(D85))</f>
-        <v>45421</v>
+      <c r="E85" s="9">
+        <v>45737</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -3089,9 +3005,8 @@
       <c r="D86" s="2">
         <v>45301</v>
       </c>
-      <c r="E86" s="2">
-        <f t="shared" ref="E86" si="83">DATE(YEAR(D86), MONTH(D86) + 4, DAY(D86))</f>
-        <v>45422</v>
+      <c r="E86" s="9">
+        <v>45738</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -3107,9 +3022,8 @@
       <c r="D87" s="2">
         <v>45301</v>
       </c>
-      <c r="E87" s="2">
-        <f t="shared" ref="E87" si="84">DATE(YEAR(D87), MONTH(D87) + 4, DAY(D87))</f>
-        <v>45422</v>
+      <c r="E87" s="9">
+        <v>45739</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -3125,9 +3039,8 @@
       <c r="D88" s="2">
         <v>45301</v>
       </c>
-      <c r="E88" s="2">
-        <f t="shared" ref="E88" si="85">DATE(YEAR(D88), MONTH(D88) + 4, DAY(D88))</f>
-        <v>45422</v>
+      <c r="E88" s="9">
+        <v>45740</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -3143,9 +3056,8 @@
       <c r="D89" s="2">
         <v>45301</v>
       </c>
-      <c r="E89" s="2">
-        <f t="shared" ref="E89" si="86">DATE(YEAR(D89), MONTH(D89) + 4, DAY(D89))</f>
-        <v>45422</v>
+      <c r="E89" s="9">
+        <v>45741</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -3161,9 +3073,8 @@
       <c r="D90" s="2">
         <v>45301</v>
       </c>
-      <c r="E90" s="2">
-        <f t="shared" ref="E90" si="87">DATE(YEAR(D90), MONTH(D90) + 4, DAY(D90))</f>
-        <v>45422</v>
+      <c r="E90" s="9">
+        <v>45742</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -3179,9 +3090,8 @@
       <c r="D91" s="2">
         <v>45302</v>
       </c>
-      <c r="E91" s="2">
-        <f t="shared" ref="E91" si="88">DATE(YEAR(D91), MONTH(D91) + 4, DAY(D91))</f>
-        <v>45423</v>
+      <c r="E91" s="9">
+        <v>45743</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -3197,9 +3107,8 @@
       <c r="D92" s="2">
         <v>45302</v>
       </c>
-      <c r="E92" s="2">
-        <f t="shared" ref="E92" si="89">DATE(YEAR(D92), MONTH(D92) + 4, DAY(D92))</f>
-        <v>45423</v>
+      <c r="E92" s="9">
+        <v>45744</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -3215,9 +3124,8 @@
       <c r="D93" s="2">
         <v>45302</v>
       </c>
-      <c r="E93" s="2">
-        <f t="shared" ref="E93" si="90">DATE(YEAR(D93), MONTH(D93) + 4, DAY(D93))</f>
-        <v>45423</v>
+      <c r="E93" s="9">
+        <v>45745</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -3233,9 +3141,8 @@
       <c r="D94" s="2">
         <v>45302</v>
       </c>
-      <c r="E94" s="2">
-        <f t="shared" ref="E94" si="91">DATE(YEAR(D94), MONTH(D94) + 4, DAY(D94))</f>
-        <v>45423</v>
+      <c r="E94" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -3251,9 +3158,8 @@
       <c r="D95" s="2">
         <v>45302</v>
       </c>
-      <c r="E95" s="2">
-        <f t="shared" ref="E95" si="92">DATE(YEAR(D95), MONTH(D95) + 4, DAY(D95))</f>
-        <v>45423</v>
+      <c r="E95" s="9">
+        <v>45747</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -3269,9 +3175,8 @@
       <c r="D96" s="2">
         <v>45303</v>
       </c>
-      <c r="E96" s="2">
-        <f t="shared" ref="E96" si="93">DATE(YEAR(D96), MONTH(D96) + 4, DAY(D96))</f>
-        <v>45424</v>
+      <c r="E96" s="9">
+        <v>45748</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -3287,9 +3192,8 @@
       <c r="D97" s="2">
         <v>45303</v>
       </c>
-      <c r="E97" s="2">
-        <f t="shared" ref="E97" si="94">DATE(YEAR(D97), MONTH(D97) + 4, DAY(D97))</f>
-        <v>45424</v>
+      <c r="E97" s="9">
+        <v>45749</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -3305,9 +3209,8 @@
       <c r="D98" s="2">
         <v>45303</v>
       </c>
-      <c r="E98" s="2">
-        <f t="shared" ref="E98" si="95">DATE(YEAR(D98), MONTH(D98) + 4, DAY(D98))</f>
-        <v>45424</v>
+      <c r="E98" s="9">
+        <v>45750</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -3323,9 +3226,8 @@
       <c r="D99" s="2">
         <v>45303</v>
       </c>
-      <c r="E99" s="2">
-        <f t="shared" ref="E99" si="96">DATE(YEAR(D99), MONTH(D99) + 4, DAY(D99))</f>
-        <v>45424</v>
+      <c r="E99" s="9">
+        <v>45751</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -3341,9 +3243,8 @@
       <c r="D100" s="2">
         <v>45304</v>
       </c>
-      <c r="E100" s="2">
-        <f t="shared" ref="E100" si="97">DATE(YEAR(D100), MONTH(D100) + 4, DAY(D100))</f>
-        <v>45425</v>
+      <c r="E100" s="9">
+        <v>45752</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -3359,9 +3260,8 @@
       <c r="D101" s="2">
         <v>45304</v>
       </c>
-      <c r="E101" s="2">
-        <f t="shared" ref="E101" si="98">DATE(YEAR(D101), MONTH(D101) + 4, DAY(D101))</f>
-        <v>45425</v>
+      <c r="E101" s="9">
+        <v>45753</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -3377,9 +3277,8 @@
       <c r="D102" s="2">
         <v>45304</v>
       </c>
-      <c r="E102" s="2">
-        <f t="shared" ref="E102" si="99">DATE(YEAR(D102), MONTH(D102) + 4, DAY(D102))</f>
-        <v>45425</v>
+      <c r="E102" s="9">
+        <v>45754</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -3395,9 +3294,8 @@
       <c r="D103" s="2">
         <v>45304</v>
       </c>
-      <c r="E103" s="2">
-        <f t="shared" ref="E103" si="100">DATE(YEAR(D103), MONTH(D103) + 4, DAY(D103))</f>
-        <v>45425</v>
+      <c r="E103" s="9">
+        <v>45755</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3413,9 +3311,8 @@
       <c r="D104" s="2">
         <v>45304</v>
       </c>
-      <c r="E104" s="2">
-        <f t="shared" ref="E104" si="101">DATE(YEAR(D104), MONTH(D104) + 4, DAY(D104))</f>
-        <v>45425</v>
+      <c r="E104" s="9">
+        <v>45756</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -3431,9 +3328,8 @@
       <c r="D105" s="2">
         <v>45304</v>
       </c>
-      <c r="E105" s="2">
-        <f t="shared" ref="E105" si="102">DATE(YEAR(D105), MONTH(D105) + 4, DAY(D105))</f>
-        <v>45425</v>
+      <c r="E105" s="9">
+        <v>45757</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -3449,9 +3345,8 @@
       <c r="D106" s="2">
         <v>45305</v>
       </c>
-      <c r="E106" s="2">
-        <f t="shared" ref="E106" si="103">DATE(YEAR(D106), MONTH(D106) + 4, DAY(D106))</f>
-        <v>45426</v>
+      <c r="E106" s="9">
+        <v>45758</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -3467,9 +3362,8 @@
       <c r="D107" s="2">
         <v>45305</v>
       </c>
-      <c r="E107" s="2">
-        <f t="shared" ref="E107" si="104">DATE(YEAR(D107), MONTH(D107) + 4, DAY(D107))</f>
-        <v>45426</v>
+      <c r="E107" s="9">
+        <v>45759</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -3485,9 +3379,8 @@
       <c r="D108" s="2">
         <v>45305</v>
       </c>
-      <c r="E108" s="2">
-        <f t="shared" ref="E108" si="105">DATE(YEAR(D108), MONTH(D108) + 4, DAY(D108))</f>
-        <v>45426</v>
+      <c r="E108" s="9">
+        <v>45760</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3503,9 +3396,8 @@
       <c r="D109" s="2">
         <v>45305</v>
       </c>
-      <c r="E109" s="2">
-        <f t="shared" ref="E109" si="106">DATE(YEAR(D109), MONTH(D109) + 4, DAY(D109))</f>
-        <v>45426</v>
+      <c r="E109" s="9">
+        <v>45761</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -3521,9 +3413,8 @@
       <c r="D110" s="2">
         <v>45305</v>
       </c>
-      <c r="E110" s="2">
-        <f t="shared" ref="E110" si="107">DATE(YEAR(D110), MONTH(D110) + 4, DAY(D110))</f>
-        <v>45426</v>
+      <c r="E110" s="9">
+        <v>45762</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3539,9 +3430,8 @@
       <c r="D111" s="2">
         <v>45306</v>
       </c>
-      <c r="E111" s="2">
-        <f t="shared" ref="E111" si="108">DATE(YEAR(D111), MONTH(D111) + 4, DAY(D111))</f>
-        <v>45427</v>
+      <c r="E111" s="9">
+        <v>45763</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3557,9 +3447,8 @@
       <c r="D112" s="2">
         <v>45306</v>
       </c>
-      <c r="E112" s="2">
-        <f t="shared" ref="E112" si="109">DATE(YEAR(D112), MONTH(D112) + 4, DAY(D112))</f>
-        <v>45427</v>
+      <c r="E112" s="9">
+        <v>45764</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3575,9 +3464,8 @@
       <c r="D113" s="2">
         <v>45306</v>
       </c>
-      <c r="E113" s="2">
-        <f t="shared" ref="E113" si="110">DATE(YEAR(D113), MONTH(D113) + 4, DAY(D113))</f>
-        <v>45427</v>
+      <c r="E113" s="9">
+        <v>45765</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3593,9 +3481,8 @@
       <c r="D114" s="2">
         <v>45306</v>
       </c>
-      <c r="E114" s="2">
-        <f t="shared" ref="E114" si="111">DATE(YEAR(D114), MONTH(D114) + 4, DAY(D114))</f>
-        <v>45427</v>
+      <c r="E114" s="9">
+        <v>45766</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3611,9 +3498,8 @@
       <c r="D115" s="2">
         <v>45306</v>
       </c>
-      <c r="E115" s="2">
-        <f t="shared" ref="E115" si="112">DATE(YEAR(D115), MONTH(D115) + 4, DAY(D115))</f>
-        <v>45427</v>
+      <c r="E115" s="9">
+        <v>45767</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3629,9 +3515,8 @@
       <c r="D116" s="2">
         <v>45307</v>
       </c>
-      <c r="E116" s="2">
-        <f t="shared" ref="E116" si="113">DATE(YEAR(D116), MONTH(D116) + 4, DAY(D116))</f>
-        <v>45428</v>
+      <c r="E116" s="9">
+        <v>45768</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3647,9 +3532,8 @@
       <c r="D117" s="2">
         <v>45307</v>
       </c>
-      <c r="E117" s="2">
-        <f t="shared" ref="E117" si="114">DATE(YEAR(D117), MONTH(D117) + 4, DAY(D117))</f>
-        <v>45428</v>
+      <c r="E117" s="9">
+        <v>45769</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3665,9 +3549,8 @@
       <c r="D118" s="2">
         <v>45307</v>
       </c>
-      <c r="E118" s="2">
-        <f t="shared" ref="E118" si="115">DATE(YEAR(D118), MONTH(D118) + 4, DAY(D118))</f>
-        <v>45428</v>
+      <c r="E118" s="9">
+        <v>45770</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3683,9 +3566,8 @@
       <c r="D119" s="2">
         <v>45307</v>
       </c>
-      <c r="E119" s="2">
-        <f t="shared" ref="E119" si="116">DATE(YEAR(D119), MONTH(D119) + 4, DAY(D119))</f>
-        <v>45428</v>
+      <c r="E119" s="9">
+        <v>45771</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3701,9 +3583,8 @@
       <c r="D120" s="2">
         <v>45307</v>
       </c>
-      <c r="E120" s="2">
-        <f t="shared" ref="E120" si="117">DATE(YEAR(D120), MONTH(D120) + 4, DAY(D120))</f>
-        <v>45428</v>
+      <c r="E120" s="9">
+        <v>45772</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3719,9 +3600,8 @@
       <c r="D121" s="2">
         <v>45308</v>
       </c>
-      <c r="E121" s="2">
-        <f t="shared" ref="E121" si="118">DATE(YEAR(D121), MONTH(D121) + 4, DAY(D121))</f>
-        <v>45429</v>
+      <c r="E121" s="9">
+        <v>45773</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -3737,9 +3617,8 @@
       <c r="D122" s="2">
         <v>45308</v>
       </c>
-      <c r="E122" s="2">
-        <f t="shared" ref="E122" si="119">DATE(YEAR(D122), MONTH(D122) + 4, DAY(D122))</f>
-        <v>45429</v>
+      <c r="E122" s="9">
+        <v>45774</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3755,9 +3634,8 @@
       <c r="D123" s="2">
         <v>45308</v>
       </c>
-      <c r="E123" s="2">
-        <f t="shared" ref="E123" si="120">DATE(YEAR(D123), MONTH(D123) + 4, DAY(D123))</f>
-        <v>45429</v>
+      <c r="E123" s="9">
+        <v>45775</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3773,9 +3651,8 @@
       <c r="D124" s="2">
         <v>45308</v>
       </c>
-      <c r="E124" s="2">
-        <f t="shared" ref="E124" si="121">DATE(YEAR(D124), MONTH(D124) + 4, DAY(D124))</f>
-        <v>45429</v>
+      <c r="E124" s="9">
+        <v>45776</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3791,9 +3668,8 @@
       <c r="D125" s="2">
         <v>45308</v>
       </c>
-      <c r="E125" s="2">
-        <f t="shared" ref="E125" si="122">DATE(YEAR(D125), MONTH(D125) + 4, DAY(D125))</f>
-        <v>45429</v>
+      <c r="E125" s="9">
+        <v>45777</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3809,9 +3685,8 @@
       <c r="D126" s="2">
         <v>45309</v>
       </c>
-      <c r="E126" s="2">
-        <f t="shared" ref="E126" si="123">DATE(YEAR(D126), MONTH(D126) + 4, DAY(D126))</f>
-        <v>45430</v>
+      <c r="E126" s="9">
+        <v>45778</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3827,9 +3702,8 @@
       <c r="D127" s="2">
         <v>45309</v>
       </c>
-      <c r="E127" s="2">
-        <f t="shared" ref="E127" si="124">DATE(YEAR(D127), MONTH(D127) + 4, DAY(D127))</f>
-        <v>45430</v>
+      <c r="E127" s="9">
+        <v>45779</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3845,9 +3719,8 @@
       <c r="D128" s="2">
         <v>45309</v>
       </c>
-      <c r="E128" s="2">
-        <f t="shared" ref="E128" si="125">DATE(YEAR(D128), MONTH(D128) + 4, DAY(D128))</f>
-        <v>45430</v>
+      <c r="E128" s="9">
+        <v>45780</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3863,9 +3736,8 @@
       <c r="D129" s="2">
         <v>45309</v>
       </c>
-      <c r="E129" s="2">
-        <f t="shared" ref="E129" si="126">DATE(YEAR(D129), MONTH(D129) + 4, DAY(D129))</f>
-        <v>45430</v>
+      <c r="E129" s="9">
+        <v>45781</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3881,9 +3753,8 @@
       <c r="D130" s="2">
         <v>45309</v>
       </c>
-      <c r="E130" s="2">
-        <f t="shared" ref="E130" si="127">DATE(YEAR(D130), MONTH(D130) + 4, DAY(D130))</f>
-        <v>45430</v>
+      <c r="E130" s="9">
+        <v>45782</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3899,9 +3770,8 @@
       <c r="D131" s="2">
         <v>45310</v>
       </c>
-      <c r="E131" s="2">
-        <f t="shared" ref="E131" si="128">DATE(YEAR(D131), MONTH(D131) + 4, DAY(D131))</f>
-        <v>45431</v>
+      <c r="E131" s="9">
+        <v>45783</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3917,9 +3787,8 @@
       <c r="D132" s="2">
         <v>45310</v>
       </c>
-      <c r="E132" s="2">
-        <f t="shared" ref="E132" si="129">DATE(YEAR(D132), MONTH(D132) + 4, DAY(D132))</f>
-        <v>45431</v>
+      <c r="E132" s="9">
+        <v>45784</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3935,9 +3804,8 @@
       <c r="D133" s="2">
         <v>45310</v>
       </c>
-      <c r="E133" s="2">
-        <f t="shared" ref="E133" si="130">DATE(YEAR(D133), MONTH(D133) + 4, DAY(D133))</f>
-        <v>45431</v>
+      <c r="E133" s="9">
+        <v>45785</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3953,9 +3821,8 @@
       <c r="D134" s="2">
         <v>45310</v>
       </c>
-      <c r="E134" s="2">
-        <f t="shared" ref="E134" si="131">DATE(YEAR(D134), MONTH(D134) + 4, DAY(D134))</f>
-        <v>45431</v>
+      <c r="E134" s="9">
+        <v>45786</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -3971,9 +3838,8 @@
       <c r="D135" s="2">
         <v>45310</v>
       </c>
-      <c r="E135" s="2">
-        <f t="shared" ref="E135" si="132">DATE(YEAR(D135), MONTH(D135) + 4, DAY(D135))</f>
-        <v>45431</v>
+      <c r="E135" s="9">
+        <v>45787</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -3989,9 +3855,8 @@
       <c r="D136" s="2">
         <v>45311</v>
       </c>
-      <c r="E136" s="2">
-        <f t="shared" ref="E136" si="133">DATE(YEAR(D136), MONTH(D136) + 4, DAY(D136))</f>
-        <v>45432</v>
+      <c r="E136" s="9">
+        <v>45788</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -4007,9 +3872,8 @@
       <c r="D137" s="2">
         <v>45311</v>
       </c>
-      <c r="E137" s="2">
-        <f t="shared" ref="E137" si="134">DATE(YEAR(D137), MONTH(D137) + 4, DAY(D137))</f>
-        <v>45432</v>
+      <c r="E137" s="9">
+        <v>45789</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -4025,9 +3889,8 @@
       <c r="D138" s="2">
         <v>45311</v>
       </c>
-      <c r="E138" s="2">
-        <f t="shared" ref="E138" si="135">DATE(YEAR(D138), MONTH(D138) + 4, DAY(D138))</f>
-        <v>45432</v>
+      <c r="E138" s="9">
+        <v>45790</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -4043,9 +3906,8 @@
       <c r="D139" s="2">
         <v>45311</v>
       </c>
-      <c r="E139" s="2">
-        <f t="shared" ref="E139" si="136">DATE(YEAR(D139), MONTH(D139) + 4, DAY(D139))</f>
-        <v>45432</v>
+      <c r="E139" s="9">
+        <v>45791</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -4061,9 +3923,8 @@
       <c r="D140" s="2">
         <v>45311</v>
       </c>
-      <c r="E140" s="2">
-        <f t="shared" ref="E140" si="137">DATE(YEAR(D140), MONTH(D140) + 4, DAY(D140))</f>
-        <v>45432</v>
+      <c r="E140" s="9">
+        <v>45792</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -4079,9 +3940,8 @@
       <c r="D141" s="2">
         <v>45312</v>
       </c>
-      <c r="E141" s="2">
-        <f t="shared" ref="E141" si="138">DATE(YEAR(D141), MONTH(D141) + 4, DAY(D141))</f>
-        <v>45433</v>
+      <c r="E141" s="9">
+        <v>45793</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -4097,9 +3957,8 @@
       <c r="D142" s="2">
         <v>45312</v>
       </c>
-      <c r="E142" s="2">
-        <f t="shared" ref="E142" si="139">DATE(YEAR(D142), MONTH(D142) + 4, DAY(D142))</f>
-        <v>45433</v>
+      <c r="E142" s="9">
+        <v>45794</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -4115,9 +3974,8 @@
       <c r="D143" s="2">
         <v>45312</v>
       </c>
-      <c r="E143" s="2">
-        <f t="shared" ref="E143" si="140">DATE(YEAR(D143), MONTH(D143) + 4, DAY(D143))</f>
-        <v>45433</v>
+      <c r="E143" s="9">
+        <v>45795</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -4133,9 +3991,8 @@
       <c r="D144" s="2">
         <v>45312</v>
       </c>
-      <c r="E144" s="2">
-        <f t="shared" ref="E144" si="141">DATE(YEAR(D144), MONTH(D144) + 4, DAY(D144))</f>
-        <v>45433</v>
+      <c r="E144" s="9">
+        <v>45796</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -4151,9 +4008,8 @@
       <c r="D145" s="2">
         <v>45312</v>
       </c>
-      <c r="E145" s="2">
-        <f t="shared" ref="E145" si="142">DATE(YEAR(D145), MONTH(D145) + 4, DAY(D145))</f>
-        <v>45433</v>
+      <c r="E145" s="9">
+        <v>45797</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -4169,9 +4025,8 @@
       <c r="D146" s="2">
         <v>45313</v>
       </c>
-      <c r="E146" s="2">
-        <f t="shared" ref="E146" si="143">DATE(YEAR(D146), MONTH(D146) + 4, DAY(D146))</f>
-        <v>45434</v>
+      <c r="E146" s="9">
+        <v>45798</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -4187,9 +4042,8 @@
       <c r="D147" s="2">
         <v>45313</v>
       </c>
-      <c r="E147" s="2">
-        <f t="shared" ref="E147" si="144">DATE(YEAR(D147), MONTH(D147) + 4, DAY(D147))</f>
-        <v>45434</v>
+      <c r="E147" s="9">
+        <v>45799</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -4205,9 +4059,8 @@
       <c r="D148" s="2">
         <v>45313</v>
       </c>
-      <c r="E148" s="2">
-        <f t="shared" ref="E148" si="145">DATE(YEAR(D148), MONTH(D148) + 4, DAY(D148))</f>
-        <v>45434</v>
+      <c r="E148" s="9">
+        <v>45800</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -4223,9 +4076,8 @@
       <c r="D149" s="2">
         <v>45313</v>
       </c>
-      <c r="E149" s="2">
-        <f t="shared" ref="E149" si="146">DATE(YEAR(D149), MONTH(D149) + 4, DAY(D149))</f>
-        <v>45434</v>
+      <c r="E149" s="9">
+        <v>45801</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -4241,9 +4093,8 @@
       <c r="D150" s="2">
         <v>45313</v>
       </c>
-      <c r="E150" s="2">
-        <f t="shared" ref="E150" si="147">DATE(YEAR(D150), MONTH(D150) + 4, DAY(D150))</f>
-        <v>45434</v>
+      <c r="E150" s="9">
+        <v>45802</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -4259,9 +4110,8 @@
       <c r="D151" s="2">
         <v>45314</v>
       </c>
-      <c r="E151" s="2">
-        <f t="shared" ref="E151" si="148">DATE(YEAR(D151), MONTH(D151) + 4, DAY(D151))</f>
-        <v>45435</v>
+      <c r="E151" s="9">
+        <v>45803</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -4277,9 +4127,8 @@
       <c r="D152" s="2">
         <v>45314</v>
       </c>
-      <c r="E152" s="2">
-        <f t="shared" ref="E152" si="149">DATE(YEAR(D152), MONTH(D152) + 4, DAY(D152))</f>
-        <v>45435</v>
+      <c r="E152" s="9">
+        <v>45804</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -4295,9 +4144,8 @@
       <c r="D153" s="2">
         <v>45314</v>
       </c>
-      <c r="E153" s="2">
-        <f t="shared" ref="E153" si="150">DATE(YEAR(D153), MONTH(D153) + 4, DAY(D153))</f>
-        <v>45435</v>
+      <c r="E153" s="9">
+        <v>45805</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -4313,9 +4161,8 @@
       <c r="D154" s="2">
         <v>45314</v>
       </c>
-      <c r="E154" s="2">
-        <f t="shared" ref="E154" si="151">DATE(YEAR(D154), MONTH(D154) + 4, DAY(D154))</f>
-        <v>45435</v>
+      <c r="E154" s="9">
+        <v>45806</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -4331,9 +4178,8 @@
       <c r="D155" s="2">
         <v>45314</v>
       </c>
-      <c r="E155" s="2">
-        <f t="shared" ref="E155" si="152">DATE(YEAR(D155), MONTH(D155) + 4, DAY(D155))</f>
-        <v>45435</v>
+      <c r="E155" s="9">
+        <v>45807</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4349,9 +4195,8 @@
       <c r="D156" s="2">
         <v>45315</v>
       </c>
-      <c r="E156" s="2">
-        <f t="shared" ref="E156" si="153">DATE(YEAR(D156), MONTH(D156) + 4, DAY(D156))</f>
-        <v>45436</v>
+      <c r="E156" s="9">
+        <v>45808</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -4367,9 +4212,8 @@
       <c r="D157" s="2">
         <v>45315</v>
       </c>
-      <c r="E157" s="2">
-        <f t="shared" ref="E157" si="154">DATE(YEAR(D157), MONTH(D157) + 4, DAY(D157))</f>
-        <v>45436</v>
+      <c r="E157" s="9">
+        <v>45809</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4385,9 +4229,8 @@
       <c r="D158" s="2">
         <v>45315</v>
       </c>
-      <c r="E158" s="2">
-        <f t="shared" ref="E158" si="155">DATE(YEAR(D158), MONTH(D158) + 4, DAY(D158))</f>
-        <v>45436</v>
+      <c r="E158" s="9">
+        <v>45810</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -4403,9 +4246,8 @@
       <c r="D159" s="2">
         <v>45315</v>
       </c>
-      <c r="E159" s="2">
-        <f t="shared" ref="E159" si="156">DATE(YEAR(D159), MONTH(D159) + 4, DAY(D159))</f>
-        <v>45436</v>
+      <c r="E159" s="9">
+        <v>45811</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -4421,9 +4263,8 @@
       <c r="D160" s="2">
         <v>45315</v>
       </c>
-      <c r="E160" s="2">
-        <f t="shared" ref="E160" si="157">DATE(YEAR(D160), MONTH(D160) + 4, DAY(D160))</f>
-        <v>45436</v>
+      <c r="E160" s="9">
+        <v>45812</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -4439,9 +4280,8 @@
       <c r="D161" s="2">
         <v>45316</v>
       </c>
-      <c r="E161" s="2">
-        <f t="shared" ref="E161" si="158">DATE(YEAR(D161), MONTH(D161) + 4, DAY(D161))</f>
-        <v>45437</v>
+      <c r="E161" s="9">
+        <v>45813</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -4457,9 +4297,8 @@
       <c r="D162" s="2">
         <v>45316</v>
       </c>
-      <c r="E162" s="2">
-        <f t="shared" ref="E162" si="159">DATE(YEAR(D162), MONTH(D162) + 4, DAY(D162))</f>
-        <v>45437</v>
+      <c r="E162" s="9">
+        <v>45814</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -4475,9 +4314,8 @@
       <c r="D163" s="2">
         <v>45316</v>
       </c>
-      <c r="E163" s="2">
-        <f t="shared" ref="E163" si="160">DATE(YEAR(D163), MONTH(D163) + 4, DAY(D163))</f>
-        <v>45437</v>
+      <c r="E163" s="9">
+        <v>45815</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -4493,9 +4331,8 @@
       <c r="D164" s="2">
         <v>45316</v>
       </c>
-      <c r="E164" s="2">
-        <f t="shared" ref="E164" si="161">DATE(YEAR(D164), MONTH(D164) + 4, DAY(D164))</f>
-        <v>45437</v>
+      <c r="E164" s="9">
+        <v>45816</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
@@ -4511,9 +4348,8 @@
       <c r="D165" s="2">
         <v>45316</v>
       </c>
-      <c r="E165" s="2">
-        <f t="shared" ref="E165" si="162">DATE(YEAR(D165), MONTH(D165) + 4, DAY(D165))</f>
-        <v>45437</v>
+      <c r="E165" s="9">
+        <v>45817</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
@@ -4529,9 +4365,8 @@
       <c r="D166" s="2">
         <v>45317</v>
       </c>
-      <c r="E166" s="2">
-        <f t="shared" ref="E166" si="163">DATE(YEAR(D166), MONTH(D166) + 4, DAY(D166))</f>
-        <v>45438</v>
+      <c r="E166" s="9">
+        <v>45818</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
@@ -4547,9 +4382,8 @@
       <c r="D167" s="2">
         <v>45317</v>
       </c>
-      <c r="E167" s="2">
-        <f t="shared" ref="E167" si="164">DATE(YEAR(D167), MONTH(D167) + 4, DAY(D167))</f>
-        <v>45438</v>
+      <c r="E167" s="9">
+        <v>45819</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
@@ -4565,9 +4399,8 @@
       <c r="D168" s="2">
         <v>45317</v>
       </c>
-      <c r="E168" s="2">
-        <f t="shared" ref="E168" si="165">DATE(YEAR(D168), MONTH(D168) + 4, DAY(D168))</f>
-        <v>45438</v>
+      <c r="E168" s="9">
+        <v>45820</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -4583,9 +4416,8 @@
       <c r="D169" s="2">
         <v>45317</v>
       </c>
-      <c r="E169" s="2">
-        <f t="shared" ref="E169" si="166">DATE(YEAR(D169), MONTH(D169) + 4, DAY(D169))</f>
-        <v>45438</v>
+      <c r="E169" s="9">
+        <v>45821</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -4601,9 +4433,8 @@
       <c r="D170" s="2">
         <v>45317</v>
       </c>
-      <c r="E170" s="2">
-        <f t="shared" ref="E170" si="167">DATE(YEAR(D170), MONTH(D170) + 4, DAY(D170))</f>
-        <v>45438</v>
+      <c r="E170" s="9">
+        <v>45822</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -4619,9 +4450,8 @@
       <c r="D171" s="2">
         <v>45318</v>
       </c>
-      <c r="E171" s="2">
-        <f t="shared" ref="E171" si="168">DATE(YEAR(D171), MONTH(D171) + 4, DAY(D171))</f>
-        <v>45439</v>
+      <c r="E171" s="9">
+        <v>45823</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -4637,9 +4467,8 @@
       <c r="D172" s="2">
         <v>45318</v>
       </c>
-      <c r="E172" s="2">
-        <f t="shared" ref="E172" si="169">DATE(YEAR(D172), MONTH(D172) + 4, DAY(D172))</f>
-        <v>45439</v>
+      <c r="E172" s="9">
+        <v>45824</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -4655,9 +4484,8 @@
       <c r="D173" s="2">
         <v>45318</v>
       </c>
-      <c r="E173" s="2">
-        <f t="shared" ref="E173" si="170">DATE(YEAR(D173), MONTH(D173) + 4, DAY(D173))</f>
-        <v>45439</v>
+      <c r="E173" s="9">
+        <v>45825</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -4673,9 +4501,8 @@
       <c r="D174" s="2">
         <v>45318</v>
       </c>
-      <c r="E174" s="2">
-        <f t="shared" ref="E174" si="171">DATE(YEAR(D174), MONTH(D174) + 4, DAY(D174))</f>
-        <v>45439</v>
+      <c r="E174" s="9">
+        <v>45826</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -4691,9 +4518,8 @@
       <c r="D175" s="2">
         <v>45318</v>
       </c>
-      <c r="E175" s="2">
-        <f t="shared" ref="E175" si="172">DATE(YEAR(D175), MONTH(D175) + 4, DAY(D175))</f>
-        <v>45439</v>
+      <c r="E175" s="9">
+        <v>45827</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
@@ -4709,9 +4535,8 @@
       <c r="D176" s="2">
         <v>45319</v>
       </c>
-      <c r="E176" s="2">
-        <f t="shared" ref="E176" si="173">DATE(YEAR(D176), MONTH(D176) + 4, DAY(D176))</f>
-        <v>45440</v>
+      <c r="E176" s="9">
+        <v>45828</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -4727,9 +4552,8 @@
       <c r="D177" s="2">
         <v>45319</v>
       </c>
-      <c r="E177" s="2">
-        <f t="shared" ref="E177" si="174">DATE(YEAR(D177), MONTH(D177) + 4, DAY(D177))</f>
-        <v>45440</v>
+      <c r="E177" s="9">
+        <v>45829</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -4745,9 +4569,8 @@
       <c r="D178" s="2">
         <v>45319</v>
       </c>
-      <c r="E178" s="2">
-        <f t="shared" ref="E178" si="175">DATE(YEAR(D178), MONTH(D178) + 4, DAY(D178))</f>
-        <v>45440</v>
+      <c r="E178" s="9">
+        <v>45830</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -4763,9 +4586,8 @@
       <c r="D179" s="2">
         <v>45319</v>
       </c>
-      <c r="E179" s="2">
-        <f t="shared" ref="E179" si="176">DATE(YEAR(D179), MONTH(D179) + 4, DAY(D179))</f>
-        <v>45440</v>
+      <c r="E179" s="9">
+        <v>45831</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -4781,13 +4603,12 @@
       <c r="D180" s="2">
         <v>45319</v>
       </c>
-      <c r="E180" s="2">
-        <f t="shared" ref="E180" si="177">DATE(YEAR(D180), MONTH(D180) + 4, DAY(D180))</f>
-        <v>45440</v>
+      <c r="E180" s="9">
+        <v>45832</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="9" t="s">
+      <c r="A181" t="s">
         <v>186</v>
       </c>
       <c r="B181" t="s">
@@ -4799,9 +4620,8 @@
       <c r="D181" s="2">
         <v>45300</v>
       </c>
-      <c r="E181" s="2">
-        <f t="shared" ref="E181" si="178">DATE(YEAR(D181), MONTH(D181) + 4, DAY(D181))</f>
-        <v>45421</v>
+      <c r="E181" s="9">
+        <v>45833</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -4817,9 +4637,8 @@
       <c r="D182" s="2">
         <v>45300</v>
       </c>
-      <c r="E182" s="2">
-        <f t="shared" ref="E182" si="179">DATE(YEAR(D182), MONTH(D182) + 4, DAY(D182))</f>
-        <v>45421</v>
+      <c r="E182" s="9">
+        <v>45834</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -4835,9 +4654,8 @@
       <c r="D183" s="2">
         <v>45300</v>
       </c>
-      <c r="E183" s="2">
-        <f t="shared" ref="E183" si="180">DATE(YEAR(D183), MONTH(D183) + 4, DAY(D183))</f>
-        <v>45421</v>
+      <c r="E183" s="9">
+        <v>45835</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -4853,9 +4671,8 @@
       <c r="D184" s="2">
         <v>45300</v>
       </c>
-      <c r="E184" s="2">
-        <f t="shared" ref="E184" si="181">DATE(YEAR(D184), MONTH(D184) + 4, DAY(D184))</f>
-        <v>45421</v>
+      <c r="E184" s="9">
+        <v>45836</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -4871,9 +4688,8 @@
       <c r="D185" s="2">
         <v>45300</v>
       </c>
-      <c r="E185" s="2">
-        <f t="shared" ref="E185" si="182">DATE(YEAR(D185), MONTH(D185) + 4, DAY(D185))</f>
-        <v>45421</v>
+      <c r="E185" s="9">
+        <v>45837</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -4889,9 +4705,8 @@
       <c r="D186" s="2">
         <v>45302</v>
       </c>
-      <c r="E186" s="2">
-        <f t="shared" ref="E186" si="183">DATE(YEAR(D186), MONTH(D186) + 4, DAY(D186))</f>
-        <v>45423</v>
+      <c r="E186" s="9">
+        <v>45838</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
@@ -4907,9 +4722,8 @@
       <c r="D187" s="2">
         <v>45302</v>
       </c>
-      <c r="E187" s="2">
-        <f t="shared" ref="E187" si="184">DATE(YEAR(D187), MONTH(D187) + 4, DAY(D187))</f>
-        <v>45423</v>
+      <c r="E187" s="9">
+        <v>45839</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -4925,9 +4739,8 @@
       <c r="D188" s="2">
         <v>45302</v>
       </c>
-      <c r="E188" s="2">
-        <f t="shared" ref="E188" si="185">DATE(YEAR(D188), MONTH(D188) + 4, DAY(D188))</f>
-        <v>45423</v>
+      <c r="E188" s="9">
+        <v>45840</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
@@ -4943,9 +4756,8 @@
       <c r="D189" s="2">
         <v>45302</v>
       </c>
-      <c r="E189" s="2">
-        <f t="shared" ref="E189" si="186">DATE(YEAR(D189), MONTH(D189) + 4, DAY(D189))</f>
-        <v>45423</v>
+      <c r="E189" s="9">
+        <v>45841</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -4961,9 +4773,8 @@
       <c r="D190" s="2">
         <v>45302</v>
       </c>
-      <c r="E190" s="2">
-        <f t="shared" ref="E190" si="187">DATE(YEAR(D190), MONTH(D190) + 4, DAY(D190))</f>
-        <v>45423</v>
+      <c r="E190" s="9">
+        <v>45842</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -4979,9 +4790,8 @@
       <c r="D191" s="2">
         <v>45302</v>
       </c>
-      <c r="E191" s="2">
-        <f t="shared" ref="E191" si="188">DATE(YEAR(D191), MONTH(D191) + 4, DAY(D191))</f>
-        <v>45423</v>
+      <c r="E191" s="9">
+        <v>45843</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -4997,9 +4807,8 @@
       <c r="D192" s="2">
         <v>45303</v>
       </c>
-      <c r="E192" s="2">
-        <f t="shared" ref="E192" si="189">DATE(YEAR(D192), MONTH(D192) + 4, DAY(D192))</f>
-        <v>45424</v>
+      <c r="E192" s="9">
+        <v>45844</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
@@ -5015,9 +4824,8 @@
       <c r="D193" s="2">
         <v>45304</v>
       </c>
-      <c r="E193" s="2">
-        <f t="shared" ref="E193" si="190">DATE(YEAR(D193), MONTH(D193) + 4, DAY(D193))</f>
-        <v>45425</v>
+      <c r="E193" s="9">
+        <v>45845</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -5033,9 +4841,8 @@
       <c r="D194" s="2">
         <v>45305</v>
       </c>
-      <c r="E194" s="2">
-        <f t="shared" ref="E194" si="191">DATE(YEAR(D194), MONTH(D194) + 4, DAY(D194))</f>
-        <v>45426</v>
+      <c r="E194" s="9">
+        <v>45846</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -5051,9 +4858,8 @@
       <c r="D195" s="2">
         <v>45306</v>
       </c>
-      <c r="E195" s="2">
-        <f t="shared" ref="E195" si="192">DATE(YEAR(D195), MONTH(D195) + 4, DAY(D195))</f>
-        <v>45427</v>
+      <c r="E195" s="9">
+        <v>45847</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -5069,9 +4875,8 @@
       <c r="D196" s="2">
         <v>45264</v>
       </c>
-      <c r="E196" s="2">
-        <f t="shared" ref="E196" si="193">DATE(YEAR(D196), MONTH(D196) + 4, DAY(D196))</f>
-        <v>45386</v>
+      <c r="E196" s="9">
+        <v>45848</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -5087,9 +4892,8 @@
       <c r="D197" s="2">
         <v>45295</v>
       </c>
-      <c r="E197" s="2">
-        <f t="shared" ref="E197" si="194">DATE(YEAR(D197), MONTH(D197) + 4, DAY(D197))</f>
-        <v>45416</v>
+      <c r="E197" s="9">
+        <v>45849</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -5105,9 +4909,8 @@
       <c r="D198" s="2">
         <v>45264</v>
       </c>
-      <c r="E198" s="2">
-        <f t="shared" ref="E198" si="195">DATE(YEAR(D198), MONTH(D198) + 4, DAY(D198))</f>
-        <v>45386</v>
+      <c r="E198" s="9">
+        <v>45850</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
@@ -5123,9 +4926,8 @@
       <c r="D199" s="2">
         <v>45264</v>
       </c>
-      <c r="E199" s="2">
-        <f t="shared" ref="E199" si="196">DATE(YEAR(D199), MONTH(D199) + 4, DAY(D199))</f>
-        <v>45386</v>
+      <c r="E199" s="9">
+        <v>45851</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -5141,9 +4943,8 @@
       <c r="D200" s="2">
         <v>45264</v>
       </c>
-      <c r="E200" s="2">
-        <f t="shared" ref="E200" si="197">DATE(YEAR(D200), MONTH(D200) + 4, DAY(D200))</f>
-        <v>45386</v>
+      <c r="E200" s="9">
+        <v>45852</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
@@ -5159,9 +4960,8 @@
       <c r="D201" s="2">
         <v>45264</v>
       </c>
-      <c r="E201" s="2">
-        <f t="shared" ref="E201" si="198">DATE(YEAR(D201), MONTH(D201) + 4, DAY(D201))</f>
-        <v>45386</v>
+      <c r="E201" s="9">
+        <v>45853</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
@@ -5177,9 +4977,8 @@
       <c r="D202" s="2">
         <v>45264</v>
       </c>
-      <c r="E202" s="2">
-        <f t="shared" ref="E202" si="199">DATE(YEAR(D202), MONTH(D202) + 4, DAY(D202))</f>
-        <v>45386</v>
+      <c r="E202" s="9">
+        <v>45854</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
@@ -5195,9 +4994,8 @@
       <c r="D203" s="2">
         <v>45295</v>
       </c>
-      <c r="E203" s="2">
-        <f t="shared" ref="E203" si="200">DATE(YEAR(D203), MONTH(D203) + 4, DAY(D203))</f>
-        <v>45416</v>
+      <c r="E203" s="9">
+        <v>45855</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -5213,9 +5011,8 @@
       <c r="D204" s="2">
         <v>45295</v>
       </c>
-      <c r="E204" s="2">
-        <f t="shared" ref="E204" si="201">DATE(YEAR(D204), MONTH(D204) + 4, DAY(D204))</f>
-        <v>45416</v>
+      <c r="E204" s="9">
+        <v>45856</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
@@ -5231,9 +5028,8 @@
       <c r="D205" s="2">
         <v>45295</v>
       </c>
-      <c r="E205" s="2">
-        <f t="shared" ref="E205" si="202">DATE(YEAR(D205), MONTH(D205) + 4, DAY(D205))</f>
-        <v>45416</v>
+      <c r="E205" s="9">
+        <v>45857</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -5249,9 +5045,8 @@
       <c r="D206" s="2">
         <v>45295</v>
       </c>
-      <c r="E206" s="2">
-        <f t="shared" ref="E206" si="203">DATE(YEAR(D206), MONTH(D206) + 4, DAY(D206))</f>
-        <v>45416</v>
+      <c r="E206" s="9">
+        <v>45858</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
@@ -5267,9 +5062,8 @@
       <c r="D207" s="2">
         <v>45295</v>
       </c>
-      <c r="E207" s="2">
-        <f t="shared" ref="E207" si="204">DATE(YEAR(D207), MONTH(D207) + 4, DAY(D207))</f>
-        <v>45416</v>
+      <c r="E207" s="9">
+        <v>45859</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -5285,9 +5079,8 @@
       <c r="D208" s="2">
         <v>45295</v>
       </c>
-      <c r="E208" s="2">
-        <f t="shared" ref="E208" si="205">DATE(YEAR(D208), MONTH(D208) + 4, DAY(D208))</f>
-        <v>45416</v>
+      <c r="E208" s="9">
+        <v>45860</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -5303,9 +5096,8 @@
       <c r="D209" s="2">
         <v>45296</v>
       </c>
-      <c r="E209" s="2">
-        <f t="shared" ref="E209" si="206">DATE(YEAR(D209), MONTH(D209) + 4, DAY(D209))</f>
-        <v>45417</v>
+      <c r="E209" s="9">
+        <v>45861</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5321,9 +5113,8 @@
       <c r="D210" s="2">
         <v>45296</v>
       </c>
-      <c r="E210" s="2">
-        <f t="shared" ref="E210" si="207">DATE(YEAR(D210), MONTH(D210) + 4, DAY(D210))</f>
-        <v>45417</v>
+      <c r="E210" s="9">
+        <v>45862</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -5339,9 +5130,8 @@
       <c r="D211" s="2">
         <v>45296</v>
       </c>
-      <c r="E211" s="2">
-        <f t="shared" ref="E211" si="208">DATE(YEAR(D211), MONTH(D211) + 4, DAY(D211))</f>
-        <v>45417</v>
+      <c r="E211" s="9">
+        <v>45863</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -5357,9 +5147,8 @@
       <c r="D212" s="2">
         <v>45296</v>
       </c>
-      <c r="E212" s="2">
-        <f t="shared" ref="E212" si="209">DATE(YEAR(D212), MONTH(D212) + 4, DAY(D212))</f>
-        <v>45417</v>
+      <c r="E212" s="9">
+        <v>45864</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -5375,9 +5164,8 @@
       <c r="D213" s="2">
         <v>45296</v>
       </c>
-      <c r="E213" s="2">
-        <f t="shared" ref="E213" si="210">DATE(YEAR(D213), MONTH(D213) + 4, DAY(D213))</f>
-        <v>45417</v>
+      <c r="E213" s="9">
+        <v>45865</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -5393,9 +5181,8 @@
       <c r="D214" s="2">
         <v>45296</v>
       </c>
-      <c r="E214" s="2">
-        <f t="shared" ref="E214" si="211">DATE(YEAR(D214), MONTH(D214) + 4, DAY(D214))</f>
-        <v>45417</v>
+      <c r="E214" s="9">
+        <v>45866</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5411,9 +5198,8 @@
       <c r="D215" s="2">
         <v>45296</v>
       </c>
-      <c r="E215" s="2">
-        <f t="shared" ref="E215" si="212">DATE(YEAR(D215), MONTH(D215) + 4, DAY(D215))</f>
-        <v>45417</v>
+      <c r="E215" s="9">
+        <v>45867</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5429,9 +5215,8 @@
       <c r="D216" s="2">
         <v>45297</v>
       </c>
-      <c r="E216" s="2">
-        <f t="shared" ref="E216" si="213">DATE(YEAR(D216), MONTH(D216) + 4, DAY(D216))</f>
-        <v>45418</v>
+      <c r="E216" s="9">
+        <v>45868</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -5447,9 +5232,8 @@
       <c r="D217" s="2">
         <v>45297</v>
       </c>
-      <c r="E217" s="2">
-        <f t="shared" ref="E217" si="214">DATE(YEAR(D217), MONTH(D217) + 4, DAY(D217))</f>
-        <v>45418</v>
+      <c r="E217" s="9">
+        <v>45869</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -5465,9 +5249,8 @@
       <c r="D218" s="2">
         <v>45297</v>
       </c>
-      <c r="E218" s="2">
-        <f t="shared" ref="E218" si="215">DATE(YEAR(D218), MONTH(D218) + 4, DAY(D218))</f>
-        <v>45418</v>
+      <c r="E218" s="9">
+        <v>45870</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -5483,9 +5266,8 @@
       <c r="D219" s="2">
         <v>45297</v>
       </c>
-      <c r="E219" s="2">
-        <f t="shared" ref="E219" si="216">DATE(YEAR(D219), MONTH(D219) + 4, DAY(D219))</f>
-        <v>45418</v>
+      <c r="E219" s="9">
+        <v>45871</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -5501,9 +5283,8 @@
       <c r="D220" s="2">
         <v>45297</v>
       </c>
-      <c r="E220" s="2">
-        <f t="shared" ref="E220" si="217">DATE(YEAR(D220), MONTH(D220) + 4, DAY(D220))</f>
-        <v>45418</v>
+      <c r="E220" s="9">
+        <v>45872</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
@@ -5519,9 +5300,8 @@
       <c r="D221" s="2">
         <v>45297</v>
       </c>
-      <c r="E221" s="2">
-        <f t="shared" ref="E221" si="218">DATE(YEAR(D221), MONTH(D221) + 4, DAY(D221))</f>
-        <v>45418</v>
+      <c r="E221" s="9">
+        <v>45873</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5537,9 +5317,8 @@
       <c r="D222" s="2">
         <v>45297</v>
       </c>
-      <c r="E222" s="2">
-        <f t="shared" ref="E222" si="219">DATE(YEAR(D222), MONTH(D222) + 4, DAY(D222))</f>
-        <v>45418</v>
+      <c r="E222" s="9">
+        <v>45874</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -5555,9 +5334,8 @@
       <c r="D223" s="2">
         <v>45297</v>
       </c>
-      <c r="E223" s="2">
-        <f t="shared" ref="E223" si="220">DATE(YEAR(D223), MONTH(D223) + 4, DAY(D223))</f>
-        <v>45418</v>
+      <c r="E223" s="9">
+        <v>45875</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -5573,9 +5351,8 @@
       <c r="D224" s="2">
         <v>45297</v>
       </c>
-      <c r="E224" s="2">
-        <f t="shared" ref="E224" si="221">DATE(YEAR(D224), MONTH(D224) + 4, DAY(D224))</f>
-        <v>45418</v>
+      <c r="E224" s="9">
+        <v>45876</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -5591,9 +5368,8 @@
       <c r="D225" s="2">
         <v>45298</v>
       </c>
-      <c r="E225" s="2">
-        <f t="shared" ref="E225" si="222">DATE(YEAR(D225), MONTH(D225) + 4, DAY(D225))</f>
-        <v>45419</v>
+      <c r="E225" s="9">
+        <v>45877</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -5609,9 +5385,8 @@
       <c r="D226" s="2">
         <v>45298</v>
       </c>
-      <c r="E226" s="2">
-        <f t="shared" ref="E226" si="223">DATE(YEAR(D226), MONTH(D226) + 4, DAY(D226))</f>
-        <v>45419</v>
+      <c r="E226" s="9">
+        <v>45878</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -5627,9 +5402,8 @@
       <c r="D227" s="2">
         <v>45298</v>
       </c>
-      <c r="E227" s="2">
-        <f t="shared" ref="E227" si="224">DATE(YEAR(D227), MONTH(D227) + 4, DAY(D227))</f>
-        <v>45419</v>
+      <c r="E227" s="9">
+        <v>45879</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
@@ -5645,9 +5419,8 @@
       <c r="D228" s="2">
         <v>45298</v>
       </c>
-      <c r="E228" s="2">
-        <f t="shared" ref="E228" si="225">DATE(YEAR(D228), MONTH(D228) + 4, DAY(D228))</f>
-        <v>45419</v>
+      <c r="E228" s="9">
+        <v>45880</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
@@ -5663,9 +5436,8 @@
       <c r="D229" s="2">
         <v>45298</v>
       </c>
-      <c r="E229" s="2">
-        <f t="shared" ref="E229" si="226">DATE(YEAR(D229), MONTH(D229) + 4, DAY(D229))</f>
-        <v>45419</v>
+      <c r="E229" s="9">
+        <v>45881</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
@@ -5681,9 +5453,8 @@
       <c r="D230" s="2">
         <v>45298</v>
       </c>
-      <c r="E230" s="2">
-        <f t="shared" ref="E230" si="227">DATE(YEAR(D230), MONTH(D230) + 4, DAY(D230))</f>
-        <v>45419</v>
+      <c r="E230" s="9">
+        <v>45882</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
@@ -5699,9 +5470,8 @@
       <c r="D231" s="2">
         <v>45298</v>
       </c>
-      <c r="E231" s="2">
-        <f t="shared" ref="E231" si="228">DATE(YEAR(D231), MONTH(D231) + 4, DAY(D231))</f>
-        <v>45419</v>
+      <c r="E231" s="9">
+        <v>45883</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -5717,9 +5487,8 @@
       <c r="D232" s="2">
         <v>45298</v>
       </c>
-      <c r="E232" s="2">
-        <f t="shared" ref="E232" si="229">DATE(YEAR(D232), MONTH(D232) + 4, DAY(D232))</f>
-        <v>45419</v>
+      <c r="E232" s="9">
+        <v>45884</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -5735,9 +5504,8 @@
       <c r="D233" s="2">
         <v>45297</v>
       </c>
-      <c r="E233" s="2">
-        <f t="shared" ref="E233" si="230">DATE(YEAR(D233), MONTH(D233) + 4, DAY(D233))</f>
-        <v>45418</v>
+      <c r="E233" s="9">
+        <v>45885</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
@@ -5753,9 +5521,8 @@
       <c r="D234" s="2">
         <v>45297</v>
       </c>
-      <c r="E234" s="2">
-        <f t="shared" ref="E234" si="231">DATE(YEAR(D234), MONTH(D234) + 4, DAY(D234))</f>
-        <v>45418</v>
+      <c r="E234" s="9">
+        <v>45886</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
@@ -5771,9 +5538,8 @@
       <c r="D235" s="2">
         <v>45297</v>
       </c>
-      <c r="E235" s="2">
-        <f t="shared" ref="E235" si="232">DATE(YEAR(D235), MONTH(D235) + 4, DAY(D235))</f>
-        <v>45418</v>
+      <c r="E235" s="9">
+        <v>45887</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -5789,9 +5555,8 @@
       <c r="D236" s="2">
         <v>45297</v>
       </c>
-      <c r="E236" s="2">
-        <f t="shared" ref="E236" si="233">DATE(YEAR(D236), MONTH(D236) + 4, DAY(D236))</f>
-        <v>45418</v>
+      <c r="E236" s="9">
+        <v>45888</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
@@ -5807,9 +5572,8 @@
       <c r="D237" s="2">
         <v>45297</v>
       </c>
-      <c r="E237" s="2">
-        <f t="shared" ref="E237" si="234">DATE(YEAR(D237), MONTH(D237) + 4, DAY(D237))</f>
-        <v>45418</v>
+      <c r="E237" s="9">
+        <v>45889</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
@@ -5825,9 +5589,8 @@
       <c r="D238" s="2">
         <v>45299</v>
       </c>
-      <c r="E238" s="2">
-        <f t="shared" ref="E238" si="235">DATE(YEAR(D238), MONTH(D238) + 4, DAY(D238))</f>
-        <v>45420</v>
+      <c r="E238" s="9">
+        <v>45890</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
@@ -5843,9 +5606,8 @@
       <c r="D239" s="2">
         <v>45299</v>
       </c>
-      <c r="E239" s="2">
-        <f t="shared" ref="E239" si="236">DATE(YEAR(D239), MONTH(D239) + 4, DAY(D239))</f>
-        <v>45420</v>
+      <c r="E239" s="9">
+        <v>45891</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
@@ -5861,9 +5623,8 @@
       <c r="D240" s="2">
         <v>45299</v>
       </c>
-      <c r="E240" s="2">
-        <f t="shared" ref="E240" si="237">DATE(YEAR(D240), MONTH(D240) + 4, DAY(D240))</f>
-        <v>45420</v>
+      <c r="E240" s="9">
+        <v>45892</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
@@ -5879,9 +5640,8 @@
       <c r="D241" s="2">
         <v>45299</v>
       </c>
-      <c r="E241" s="2">
-        <f t="shared" ref="E241" si="238">DATE(YEAR(D241), MONTH(D241) + 4, DAY(D241))</f>
-        <v>45420</v>
+      <c r="E241" s="9">
+        <v>45893</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -5897,9 +5657,8 @@
       <c r="D242" s="2">
         <v>45299</v>
       </c>
-      <c r="E242" s="2">
-        <f t="shared" ref="E242" si="239">DATE(YEAR(D242), MONTH(D242) + 4, DAY(D242))</f>
-        <v>45420</v>
+      <c r="E242" s="9">
+        <v>45894</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -5915,9 +5674,8 @@
       <c r="D243" s="2">
         <v>45300</v>
       </c>
-      <c r="E243" s="2">
-        <f t="shared" ref="E243" si="240">DATE(YEAR(D243), MONTH(D243) + 4, DAY(D243))</f>
-        <v>45421</v>
+      <c r="E243" s="9">
+        <v>45895</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -5933,9 +5691,8 @@
       <c r="D244" s="2">
         <v>45300</v>
       </c>
-      <c r="E244" s="2">
-        <f t="shared" ref="E244" si="241">DATE(YEAR(D244), MONTH(D244) + 4, DAY(D244))</f>
-        <v>45421</v>
+      <c r="E244" s="9">
+        <v>45896</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -5951,9 +5708,8 @@
       <c r="D245" s="2">
         <v>45301</v>
       </c>
-      <c r="E245" s="2">
-        <f t="shared" ref="E245" si="242">DATE(YEAR(D245), MONTH(D245) + 4, DAY(D245))</f>
-        <v>45422</v>
+      <c r="E245" s="9">
+        <v>45897</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
@@ -5969,9 +5725,8 @@
       <c r="D246" s="2">
         <v>45301</v>
       </c>
-      <c r="E246" s="2">
-        <f t="shared" ref="E246" si="243">DATE(YEAR(D246), MONTH(D246) + 4, DAY(D246))</f>
-        <v>45422</v>
+      <c r="E246" s="9">
+        <v>45898</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
@@ -5987,9 +5742,8 @@
       <c r="D247" s="2">
         <v>45301</v>
       </c>
-      <c r="E247" s="2">
-        <f t="shared" ref="E247" si="244">DATE(YEAR(D247), MONTH(D247) + 4, DAY(D247))</f>
-        <v>45422</v>
+      <c r="E247" s="9">
+        <v>45899</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
@@ -6005,9 +5759,8 @@
       <c r="D248" s="2">
         <v>45302</v>
       </c>
-      <c r="E248" s="2">
-        <f t="shared" ref="E248" si="245">DATE(YEAR(D248), MONTH(D248) + 4, DAY(D248))</f>
-        <v>45423</v>
+      <c r="E248" s="9">
+        <v>45900</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -6023,9 +5776,8 @@
       <c r="D249" s="2">
         <v>45302</v>
       </c>
-      <c r="E249" s="2">
-        <f t="shared" ref="E249" si="246">DATE(YEAR(D249), MONTH(D249) + 4, DAY(D249))</f>
-        <v>45423</v>
+      <c r="E249" s="9">
+        <v>45901</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -6041,9 +5793,8 @@
       <c r="D250" s="2">
         <v>45302</v>
       </c>
-      <c r="E250" s="2">
-        <f t="shared" ref="E250" si="247">DATE(YEAR(D250), MONTH(D250) + 4, DAY(D250))</f>
-        <v>45423</v>
+      <c r="E250" s="9">
+        <v>45902</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -6059,9 +5810,8 @@
       <c r="D251" s="2">
         <v>45303</v>
       </c>
-      <c r="E251" s="2">
-        <f t="shared" ref="E251" si="248">DATE(YEAR(D251), MONTH(D251) + 4, DAY(D251))</f>
-        <v>45424</v>
+      <c r="E251" s="9">
+        <v>45903</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
@@ -6077,9 +5827,8 @@
       <c r="D252" s="2">
         <v>45303</v>
       </c>
-      <c r="E252" s="2">
-        <f t="shared" ref="E252" si="249">DATE(YEAR(D252), MONTH(D252) + 4, DAY(D252))</f>
-        <v>45424</v>
+      <c r="E252" s="9">
+        <v>45904</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -6095,9 +5844,8 @@
       <c r="D253" s="2">
         <v>45303</v>
       </c>
-      <c r="E253" s="2">
-        <f t="shared" ref="E253" si="250">DATE(YEAR(D253), MONTH(D253) + 4, DAY(D253))</f>
-        <v>45424</v>
+      <c r="E253" s="9">
+        <v>45905</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -6113,9 +5861,8 @@
       <c r="D254" s="2">
         <v>45303</v>
       </c>
-      <c r="E254" s="2">
-        <f t="shared" ref="E254" si="251">DATE(YEAR(D254), MONTH(D254) + 4, DAY(D254))</f>
-        <v>45424</v>
+      <c r="E254" s="9">
+        <v>45906</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -6131,9 +5878,8 @@
       <c r="D255" s="2">
         <v>45304</v>
       </c>
-      <c r="E255" s="2">
-        <f t="shared" ref="E255" si="252">DATE(YEAR(D255), MONTH(D255) + 4, DAY(D255))</f>
-        <v>45425</v>
+      <c r="E255" s="9">
+        <v>45907</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -6149,9 +5895,8 @@
       <c r="D256" s="2">
         <v>45304</v>
       </c>
-      <c r="E256" s="2">
-        <f t="shared" ref="E256" si="253">DATE(YEAR(D256), MONTH(D256) + 4, DAY(D256))</f>
-        <v>45425</v>
+      <c r="E256" s="9">
+        <v>45908</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
@@ -6167,9 +5912,8 @@
       <c r="D257" s="2">
         <v>45304</v>
       </c>
-      <c r="E257" s="2">
-        <f t="shared" ref="E257" si="254">DATE(YEAR(D257), MONTH(D257) + 4, DAY(D257))</f>
-        <v>45425</v>
+      <c r="E257" s="9">
+        <v>45909</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
@@ -6185,9 +5929,8 @@
       <c r="D258" s="2">
         <v>45304</v>
       </c>
-      <c r="E258" s="2">
-        <f t="shared" ref="E258" si="255">DATE(YEAR(D258), MONTH(D258) + 4, DAY(D258))</f>
-        <v>45425</v>
+      <c r="E258" s="9">
+        <v>45910</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
@@ -6203,9 +5946,8 @@
       <c r="D259" s="2">
         <v>45304</v>
       </c>
-      <c r="E259" s="2">
-        <f t="shared" ref="E259" si="256">DATE(YEAR(D259), MONTH(D259) + 4, DAY(D259))</f>
-        <v>45425</v>
+      <c r="E259" s="9">
+        <v>45911</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -6221,9 +5963,8 @@
       <c r="D260" s="2">
         <v>45304</v>
       </c>
-      <c r="E260" s="2">
-        <f t="shared" ref="E260" si="257">DATE(YEAR(D260), MONTH(D260) + 4, DAY(D260))</f>
-        <v>45425</v>
+      <c r="E260" s="9">
+        <v>45912</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -6239,9 +5980,8 @@
       <c r="D261" s="2">
         <v>45305</v>
       </c>
-      <c r="E261" s="2">
-        <f t="shared" ref="E261" si="258">DATE(YEAR(D261), MONTH(D261) + 4, DAY(D261))</f>
-        <v>45426</v>
+      <c r="E261" s="9">
+        <v>45913</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -6257,9 +5997,8 @@
       <c r="D262" s="2">
         <v>45305</v>
       </c>
-      <c r="E262" s="2">
-        <f t="shared" ref="E262" si="259">DATE(YEAR(D262), MONTH(D262) + 4, DAY(D262))</f>
-        <v>45426</v>
+      <c r="E262" s="9">
+        <v>45914</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
@@ -6275,9 +6014,8 @@
       <c r="D263" s="2">
         <v>45305</v>
       </c>
-      <c r="E263" s="2">
-        <f t="shared" ref="E263" si="260">DATE(YEAR(D263), MONTH(D263) + 4, DAY(D263))</f>
-        <v>45426</v>
+      <c r="E263" s="9">
+        <v>45915</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
@@ -6293,9 +6031,8 @@
       <c r="D264" s="2">
         <v>45305</v>
       </c>
-      <c r="E264" s="2">
-        <f t="shared" ref="E264" si="261">DATE(YEAR(D264), MONTH(D264) + 4, DAY(D264))</f>
-        <v>45426</v>
+      <c r="E264" s="9">
+        <v>45916</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
@@ -6311,9 +6048,8 @@
       <c r="D265" s="2">
         <v>45305</v>
       </c>
-      <c r="E265" s="2">
-        <f t="shared" ref="E265" si="262">DATE(YEAR(D265), MONTH(D265) + 4, DAY(D265))</f>
-        <v>45426</v>
+      <c r="E265" s="9">
+        <v>45917</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
@@ -6329,9 +6065,8 @@
       <c r="D266" s="2">
         <v>45306</v>
       </c>
-      <c r="E266" s="2">
-        <f t="shared" ref="E266" si="263">DATE(YEAR(D266), MONTH(D266) + 4, DAY(D266))</f>
-        <v>45427</v>
+      <c r="E266" s="9">
+        <v>45918</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
@@ -6347,9 +6082,8 @@
       <c r="D267" s="2">
         <v>45306</v>
       </c>
-      <c r="E267" s="2">
-        <f t="shared" ref="E267" si="264">DATE(YEAR(D267), MONTH(D267) + 4, DAY(D267))</f>
-        <v>45427</v>
+      <c r="E267" s="9">
+        <v>45919</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
@@ -6365,9 +6099,8 @@
       <c r="D268" s="2">
         <v>45306</v>
       </c>
-      <c r="E268" s="2">
-        <f t="shared" ref="E268" si="265">DATE(YEAR(D268), MONTH(D268) + 4, DAY(D268))</f>
-        <v>45427</v>
+      <c r="E268" s="9">
+        <v>45920</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -6383,9 +6116,8 @@
       <c r="D269" s="2">
         <v>45306</v>
       </c>
-      <c r="E269" s="2">
-        <f t="shared" ref="E269" si="266">DATE(YEAR(D269), MONTH(D269) + 4, DAY(D269))</f>
-        <v>45427</v>
+      <c r="E269" s="9">
+        <v>45921</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
@@ -6401,9 +6133,8 @@
       <c r="D270" s="2">
         <v>45306</v>
       </c>
-      <c r="E270" s="2">
-        <f t="shared" ref="E270" si="267">DATE(YEAR(D270), MONTH(D270) + 4, DAY(D270))</f>
-        <v>45427</v>
+      <c r="E270" s="9">
+        <v>45922</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
@@ -6419,9 +6150,8 @@
       <c r="D271" s="2">
         <v>45307</v>
       </c>
-      <c r="E271" s="2">
-        <f t="shared" ref="E271" si="268">DATE(YEAR(D271), MONTH(D271) + 4, DAY(D271))</f>
-        <v>45428</v>
+      <c r="E271" s="9">
+        <v>45923</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
@@ -6437,9 +6167,8 @@
       <c r="D272" s="2">
         <v>45307</v>
       </c>
-      <c r="E272" s="2">
-        <f t="shared" ref="E272" si="269">DATE(YEAR(D272), MONTH(D272) + 4, DAY(D272))</f>
-        <v>45428</v>
+      <c r="E272" s="9">
+        <v>45924</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
@@ -6455,9 +6184,8 @@
       <c r="D273" s="2">
         <v>45307</v>
       </c>
-      <c r="E273" s="2">
-        <f t="shared" ref="E273" si="270">DATE(YEAR(D273), MONTH(D273) + 4, DAY(D273))</f>
-        <v>45428</v>
+      <c r="E273" s="9">
+        <v>45925</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -6473,9 +6201,8 @@
       <c r="D274" s="2">
         <v>45307</v>
       </c>
-      <c r="E274" s="2">
-        <f t="shared" ref="E274" si="271">DATE(YEAR(D274), MONTH(D274) + 4, DAY(D274))</f>
-        <v>45428</v>
+      <c r="E274" s="9">
+        <v>45926</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
@@ -6491,9 +6218,8 @@
       <c r="D275" s="2">
         <v>45307</v>
       </c>
-      <c r="E275" s="2">
-        <f t="shared" ref="E275" si="272">DATE(YEAR(D275), MONTH(D275) + 4, DAY(D275))</f>
-        <v>45428</v>
+      <c r="E275" s="9">
+        <v>45927</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
@@ -6509,9 +6235,8 @@
       <c r="D276" s="2">
         <v>45308</v>
       </c>
-      <c r="E276" s="2">
-        <f t="shared" ref="E276" si="273">DATE(YEAR(D276), MONTH(D276) + 4, DAY(D276))</f>
-        <v>45429</v>
+      <c r="E276" s="9">
+        <v>45928</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
@@ -6527,9 +6252,8 @@
       <c r="D277" s="2">
         <v>45308</v>
       </c>
-      <c r="E277" s="2">
-        <f t="shared" ref="E277" si="274">DATE(YEAR(D277), MONTH(D277) + 4, DAY(D277))</f>
-        <v>45429</v>
+      <c r="E277" s="9">
+        <v>45929</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
@@ -6545,9 +6269,8 @@
       <c r="D278" s="2">
         <v>45308</v>
       </c>
-      <c r="E278" s="2">
-        <f t="shared" ref="E278" si="275">DATE(YEAR(D278), MONTH(D278) + 4, DAY(D278))</f>
-        <v>45429</v>
+      <c r="E278" s="9">
+        <v>45930</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
@@ -6563,9 +6286,8 @@
       <c r="D279" s="2">
         <v>45308</v>
       </c>
-      <c r="E279" s="2">
-        <f t="shared" ref="E279" si="276">DATE(YEAR(D279), MONTH(D279) + 4, DAY(D279))</f>
-        <v>45429</v>
+      <c r="E279" s="9">
+        <v>45931</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
@@ -6581,9 +6303,8 @@
       <c r="D280" s="2">
         <v>45308</v>
       </c>
-      <c r="E280" s="2">
-        <f t="shared" ref="E280" si="277">DATE(YEAR(D280), MONTH(D280) + 4, DAY(D280))</f>
-        <v>45429</v>
+      <c r="E280" s="9">
+        <v>45932</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
@@ -6599,9 +6320,8 @@
       <c r="D281" s="2">
         <v>45309</v>
       </c>
-      <c r="E281" s="2">
-        <f t="shared" ref="E281" si="278">DATE(YEAR(D281), MONTH(D281) + 4, DAY(D281))</f>
-        <v>45430</v>
+      <c r="E281" s="9">
+        <v>45933</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
@@ -6617,9 +6337,8 @@
       <c r="D282" s="2">
         <v>45309</v>
       </c>
-      <c r="E282" s="2">
-        <f t="shared" ref="E282" si="279">DATE(YEAR(D282), MONTH(D282) + 4, DAY(D282))</f>
-        <v>45430</v>
+      <c r="E282" s="9">
+        <v>45934</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
@@ -6635,9 +6354,8 @@
       <c r="D283" s="2">
         <v>45309</v>
       </c>
-      <c r="E283" s="2">
-        <f t="shared" ref="E283" si="280">DATE(YEAR(D283), MONTH(D283) + 4, DAY(D283))</f>
-        <v>45430</v>
+      <c r="E283" s="9">
+        <v>45935</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
@@ -6653,9 +6371,8 @@
       <c r="D284" s="2">
         <v>45309</v>
       </c>
-      <c r="E284" s="2">
-        <f t="shared" ref="E284" si="281">DATE(YEAR(D284), MONTH(D284) + 4, DAY(D284))</f>
-        <v>45430</v>
+      <c r="E284" s="9">
+        <v>45936</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
@@ -6671,9 +6388,8 @@
       <c r="D285" s="2">
         <v>45309</v>
       </c>
-      <c r="E285" s="2">
-        <f t="shared" ref="E285" si="282">DATE(YEAR(D285), MONTH(D285) + 4, DAY(D285))</f>
-        <v>45430</v>
+      <c r="E285" s="9">
+        <v>45937</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
@@ -6689,9 +6405,8 @@
       <c r="D286" s="2">
         <v>45310</v>
       </c>
-      <c r="E286" s="2">
-        <f t="shared" ref="E286" si="283">DATE(YEAR(D286), MONTH(D286) + 4, DAY(D286))</f>
-        <v>45431</v>
+      <c r="E286" s="9">
+        <v>45938</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -6707,9 +6422,8 @@
       <c r="D287" s="2">
         <v>45310</v>
       </c>
-      <c r="E287" s="2">
-        <f t="shared" ref="E287" si="284">DATE(YEAR(D287), MONTH(D287) + 4, DAY(D287))</f>
-        <v>45431</v>
+      <c r="E287" s="9">
+        <v>45939</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -6725,9 +6439,8 @@
       <c r="D288" s="2">
         <v>45310</v>
       </c>
-      <c r="E288" s="2">
-        <f t="shared" ref="E288" si="285">DATE(YEAR(D288), MONTH(D288) + 4, DAY(D288))</f>
-        <v>45431</v>
+      <c r="E288" s="9">
+        <v>45940</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -6743,9 +6456,8 @@
       <c r="D289" s="2">
         <v>45310</v>
       </c>
-      <c r="E289" s="2">
-        <f t="shared" ref="E289" si="286">DATE(YEAR(D289), MONTH(D289) + 4, DAY(D289))</f>
-        <v>45431</v>
+      <c r="E289" s="9">
+        <v>45941</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -6761,9 +6473,8 @@
       <c r="D290" s="2">
         <v>45310</v>
       </c>
-      <c r="E290" s="2">
-        <f t="shared" ref="E290" si="287">DATE(YEAR(D290), MONTH(D290) + 4, DAY(D290))</f>
-        <v>45431</v>
+      <c r="E290" s="9">
+        <v>45942</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -6779,9 +6490,8 @@
       <c r="D291" s="2">
         <v>45311</v>
       </c>
-      <c r="E291" s="2">
-        <f t="shared" ref="E291" si="288">DATE(YEAR(D291), MONTH(D291) + 4, DAY(D291))</f>
-        <v>45432</v>
+      <c r="E291" s="9">
+        <v>45943</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -6797,9 +6507,8 @@
       <c r="D292" s="2">
         <v>45311</v>
       </c>
-      <c r="E292" s="2">
-        <f t="shared" ref="E292" si="289">DATE(YEAR(D292), MONTH(D292) + 4, DAY(D292))</f>
-        <v>45432</v>
+      <c r="E292" s="9">
+        <v>45944</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -6815,9 +6524,8 @@
       <c r="D293" s="2">
         <v>45311</v>
       </c>
-      <c r="E293" s="2">
-        <f t="shared" ref="E293" si="290">DATE(YEAR(D293), MONTH(D293) + 4, DAY(D293))</f>
-        <v>45432</v>
+      <c r="E293" s="9">
+        <v>45945</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -6833,9 +6541,8 @@
       <c r="D294" s="2">
         <v>45311</v>
       </c>
-      <c r="E294" s="2">
-        <f t="shared" ref="E294" si="291">DATE(YEAR(D294), MONTH(D294) + 4, DAY(D294))</f>
-        <v>45432</v>
+      <c r="E294" s="9">
+        <v>45946</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -6851,9 +6558,8 @@
       <c r="D295" s="2">
         <v>45311</v>
       </c>
-      <c r="E295" s="2">
-        <f t="shared" ref="E295" si="292">DATE(YEAR(D295), MONTH(D295) + 4, DAY(D295))</f>
-        <v>45432</v>
+      <c r="E295" s="9">
+        <v>45947</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
@@ -6869,9 +6575,8 @@
       <c r="D296" s="2">
         <v>45312</v>
       </c>
-      <c r="E296" s="2">
-        <f t="shared" ref="E296" si="293">DATE(YEAR(D296), MONTH(D296) + 4, DAY(D296))</f>
-        <v>45433</v>
+      <c r="E296" s="9">
+        <v>45948</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
@@ -6887,9 +6592,8 @@
       <c r="D297" s="2">
         <v>45312</v>
       </c>
-      <c r="E297" s="2">
-        <f t="shared" ref="E297" si="294">DATE(YEAR(D297), MONTH(D297) + 4, DAY(D297))</f>
-        <v>45433</v>
+      <c r="E297" s="9">
+        <v>45949</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -6905,9 +6609,8 @@
       <c r="D298" s="2">
         <v>45312</v>
       </c>
-      <c r="E298" s="2">
-        <f t="shared" ref="E298" si="295">DATE(YEAR(D298), MONTH(D298) + 4, DAY(D298))</f>
-        <v>45433</v>
+      <c r="E298" s="9">
+        <v>45950</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
@@ -6923,9 +6626,8 @@
       <c r="D299" s="2">
         <v>45312</v>
       </c>
-      <c r="E299" s="2">
-        <f t="shared" ref="E299" si="296">DATE(YEAR(D299), MONTH(D299) + 4, DAY(D299))</f>
-        <v>45433</v>
+      <c r="E299" s="9">
+        <v>45951</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -6941,9 +6643,8 @@
       <c r="D300" s="2">
         <v>45312</v>
       </c>
-      <c r="E300" s="2">
-        <f t="shared" ref="E300" si="297">DATE(YEAR(D300), MONTH(D300) + 4, DAY(D300))</f>
-        <v>45433</v>
+      <c r="E300" s="9">
+        <v>45952</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
@@ -6959,9 +6660,8 @@
       <c r="D301" s="2">
         <v>45313</v>
       </c>
-      <c r="E301" s="2">
-        <f t="shared" ref="E301" si="298">DATE(YEAR(D301), MONTH(D301) + 4, DAY(D301))</f>
-        <v>45434</v>
+      <c r="E301" s="9">
+        <v>45953</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
@@ -6977,9 +6677,8 @@
       <c r="D302" s="2">
         <v>45313</v>
       </c>
-      <c r="E302" s="2">
-        <f t="shared" ref="E302" si="299">DATE(YEAR(D302), MONTH(D302) + 4, DAY(D302))</f>
-        <v>45434</v>
+      <c r="E302" s="9">
+        <v>45954</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
@@ -6995,9 +6694,8 @@
       <c r="D303" s="2">
         <v>45313</v>
       </c>
-      <c r="E303" s="2">
-        <f t="shared" ref="E303" si="300">DATE(YEAR(D303), MONTH(D303) + 4, DAY(D303))</f>
-        <v>45434</v>
+      <c r="E303" s="9">
+        <v>45955</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
@@ -7013,9 +6711,8 @@
       <c r="D304" s="2">
         <v>45313</v>
       </c>
-      <c r="E304" s="2">
-        <f t="shared" ref="E304" si="301">DATE(YEAR(D304), MONTH(D304) + 4, DAY(D304))</f>
-        <v>45434</v>
+      <c r="E304" s="9">
+        <v>45956</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -7031,9 +6728,8 @@
       <c r="D305" s="2">
         <v>45313</v>
       </c>
-      <c r="E305" s="2">
-        <f t="shared" ref="E305" si="302">DATE(YEAR(D305), MONTH(D305) + 4, DAY(D305))</f>
-        <v>45434</v>
+      <c r="E305" s="9">
+        <v>45957</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -7049,9 +6745,8 @@
       <c r="D306" s="2">
         <v>45315</v>
       </c>
-      <c r="E306" s="2">
-        <f t="shared" ref="E306" si="303">DATE(YEAR(D306), MONTH(D306) + 4, DAY(D306))</f>
-        <v>45436</v>
+      <c r="E306" s="9">
+        <v>45958</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -7067,9 +6762,8 @@
       <c r="D307" s="2">
         <v>45315</v>
       </c>
-      <c r="E307" s="2">
-        <f t="shared" ref="E307" si="304">DATE(YEAR(D307), MONTH(D307) + 4, DAY(D307))</f>
-        <v>45436</v>
+      <c r="E307" s="9">
+        <v>45959</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -7085,9 +6779,8 @@
       <c r="D308" s="2">
         <v>45315</v>
       </c>
-      <c r="E308" s="2">
-        <f t="shared" ref="E308" si="305">DATE(YEAR(D308), MONTH(D308) + 4, DAY(D308))</f>
-        <v>45436</v>
+      <c r="E308" s="9">
+        <v>45960</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -7103,9 +6796,8 @@
       <c r="D309" s="2">
         <v>45315</v>
       </c>
-      <c r="E309" s="2">
-        <f t="shared" ref="E309" si="306">DATE(YEAR(D309), MONTH(D309) + 4, DAY(D309))</f>
-        <v>45436</v>
+      <c r="E309" s="9">
+        <v>45961</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -7121,9 +6813,8 @@
       <c r="D310" s="2">
         <v>45315</v>
       </c>
-      <c r="E310" s="2">
-        <f t="shared" ref="E310" si="307">DATE(YEAR(D310), MONTH(D310) + 4, DAY(D310))</f>
-        <v>45436</v>
+      <c r="E310" s="9">
+        <v>45962</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -7139,9 +6830,8 @@
       <c r="D311" s="2">
         <v>45316</v>
       </c>
-      <c r="E311" s="2">
-        <f t="shared" ref="E311" si="308">DATE(YEAR(D311), MONTH(D311) + 4, DAY(D311))</f>
-        <v>45437</v>
+      <c r="E311" s="9">
+        <v>45963</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -7157,9 +6847,8 @@
       <c r="D312" s="2">
         <v>45316</v>
       </c>
-      <c r="E312" s="2">
-        <f t="shared" ref="E312" si="309">DATE(YEAR(D312), MONTH(D312) + 4, DAY(D312))</f>
-        <v>45437</v>
+      <c r="E312" s="9">
+        <v>45964</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -7175,9 +6864,8 @@
       <c r="D313" s="2">
         <v>45316</v>
       </c>
-      <c r="E313" s="2">
-        <f t="shared" ref="E313" si="310">DATE(YEAR(D313), MONTH(D313) + 4, DAY(D313))</f>
-        <v>45437</v>
+      <c r="E313" s="9">
+        <v>45965</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -7193,9 +6881,8 @@
       <c r="D314" s="2">
         <v>45316</v>
       </c>
-      <c r="E314" s="2">
-        <f t="shared" ref="E314" si="311">DATE(YEAR(D314), MONTH(D314) + 4, DAY(D314))</f>
-        <v>45437</v>
+      <c r="E314" s="9">
+        <v>45966</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -7211,9 +6898,8 @@
       <c r="D315" s="2">
         <v>45316</v>
       </c>
-      <c r="E315" s="2">
-        <f t="shared" ref="E315" si="312">DATE(YEAR(D315), MONTH(D315) + 4, DAY(D315))</f>
-        <v>45437</v>
+      <c r="E315" s="9">
+        <v>45967</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -7229,9 +6915,8 @@
       <c r="D316" s="2">
         <v>45317</v>
       </c>
-      <c r="E316" s="2">
-        <f t="shared" ref="E316" si="313">DATE(YEAR(D316), MONTH(D316) + 4, DAY(D316))</f>
-        <v>45438</v>
+      <c r="E316" s="9">
+        <v>45968</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -7247,9 +6932,8 @@
       <c r="D317" s="2">
         <v>45317</v>
       </c>
-      <c r="E317" s="2">
-        <f t="shared" ref="E317" si="314">DATE(YEAR(D317), MONTH(D317) + 4, DAY(D317))</f>
-        <v>45438</v>
+      <c r="E317" s="9">
+        <v>45969</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -7265,9 +6949,8 @@
       <c r="D318" s="2">
         <v>45317</v>
       </c>
-      <c r="E318" s="2">
-        <f t="shared" ref="E318" si="315">DATE(YEAR(D318), MONTH(D318) + 4, DAY(D318))</f>
-        <v>45438</v>
+      <c r="E318" s="9">
+        <v>45970</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -7283,9 +6966,8 @@
       <c r="D319" s="2">
         <v>45317</v>
       </c>
-      <c r="E319" s="2">
-        <f t="shared" ref="E319" si="316">DATE(YEAR(D319), MONTH(D319) + 4, DAY(D319))</f>
-        <v>45438</v>
+      <c r="E319" s="9">
+        <v>45971</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -7301,9 +6983,8 @@
       <c r="D320" s="2">
         <v>45317</v>
       </c>
-      <c r="E320" s="2">
-        <f t="shared" ref="E320" si="317">DATE(YEAR(D320), MONTH(D320) + 4, DAY(D320))</f>
-        <v>45438</v>
+      <c r="E320" s="9">
+        <v>45972</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -7319,9 +7000,8 @@
       <c r="D321" s="2">
         <v>45319</v>
       </c>
-      <c r="E321" s="2">
-        <f t="shared" ref="E321" si="318">DATE(YEAR(D321), MONTH(D321) + 4, DAY(D321))</f>
-        <v>45440</v>
+      <c r="E321" s="9">
+        <v>45973</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -7337,9 +7017,8 @@
       <c r="D322" s="2">
         <v>45319</v>
       </c>
-      <c r="E322" s="2">
-        <f t="shared" ref="E322" si="319">DATE(YEAR(D322), MONTH(D322) + 4, DAY(D322))</f>
-        <v>45440</v>
+      <c r="E322" s="9">
+        <v>45974</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -7355,9 +7034,8 @@
       <c r="D323" s="2">
         <v>45319</v>
       </c>
-      <c r="E323" s="2">
-        <f t="shared" ref="E323" si="320">DATE(YEAR(D323), MONTH(D323) + 4, DAY(D323))</f>
-        <v>45440</v>
+      <c r="E323" s="9">
+        <v>45975</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -7373,9 +7051,8 @@
       <c r="D324" s="2">
         <v>45319</v>
       </c>
-      <c r="E324" s="2">
-        <f t="shared" ref="E324" si="321">DATE(YEAR(D324), MONTH(D324) + 4, DAY(D324))</f>
-        <v>45440</v>
+      <c r="E324" s="9">
+        <v>45976</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -7391,13 +7068,12 @@
       <c r="D325" s="2">
         <v>45319</v>
       </c>
-      <c r="E325" s="2">
-        <f t="shared" ref="E325" si="322">DATE(YEAR(D325), MONTH(D325) + 4, DAY(D325))</f>
-        <v>45440</v>
+      <c r="E325" s="9">
+        <v>45977</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A326" s="9" t="s">
+      <c r="A326" t="s">
         <v>186</v>
       </c>
       <c r="B326" t="s">
@@ -7409,9 +7085,8 @@
       <c r="D326" s="2">
         <v>45300</v>
       </c>
-      <c r="E326" s="2">
-        <f t="shared" ref="E326" si="323">DATE(YEAR(D326), MONTH(D326) + 4, DAY(D326))</f>
-        <v>45421</v>
+      <c r="E326" s="9">
+        <v>45978</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -7427,9 +7102,8 @@
       <c r="D327" s="2">
         <v>45300</v>
       </c>
-      <c r="E327" s="2">
-        <f t="shared" ref="E327" si="324">DATE(YEAR(D327), MONTH(D327) + 4, DAY(D327))</f>
-        <v>45421</v>
+      <c r="E327" s="9">
+        <v>45979</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
@@ -7445,9 +7119,8 @@
       <c r="D328" s="2">
         <v>45300</v>
       </c>
-      <c r="E328" s="2">
-        <f t="shared" ref="E328" si="325">DATE(YEAR(D328), MONTH(D328) + 4, DAY(D328))</f>
-        <v>45421</v>
+      <c r="E328" s="9">
+        <v>45980</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -7463,9 +7136,8 @@
       <c r="D329" s="2">
         <v>45300</v>
       </c>
-      <c r="E329" s="2">
-        <f t="shared" ref="E329" si="326">DATE(YEAR(D329), MONTH(D329) + 4, DAY(D329))</f>
-        <v>45421</v>
+      <c r="E329" s="9">
+        <v>45981</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
@@ -7481,9 +7153,8 @@
       <c r="D330" s="2">
         <v>45300</v>
       </c>
-      <c r="E330" s="2">
-        <f t="shared" ref="E330" si="327">DATE(YEAR(D330), MONTH(D330) + 4, DAY(D330))</f>
-        <v>45421</v>
+      <c r="E330" s="9">
+        <v>45982</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -7499,9 +7170,8 @@
       <c r="D331" s="2">
         <v>45302</v>
       </c>
-      <c r="E331" s="2">
-        <f t="shared" ref="E331" si="328">DATE(YEAR(D331), MONTH(D331) + 4, DAY(D331))</f>
-        <v>45423</v>
+      <c r="E331" s="9">
+        <v>45983</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
@@ -7517,9 +7187,8 @@
       <c r="D332" s="2">
         <v>45302</v>
       </c>
-      <c r="E332" s="2">
-        <f t="shared" ref="E332" si="329">DATE(YEAR(D332), MONTH(D332) + 4, DAY(D332))</f>
-        <v>45423</v>
+      <c r="E332" s="9">
+        <v>45984</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -7535,9 +7204,8 @@
       <c r="D333" s="2">
         <v>45302</v>
       </c>
-      <c r="E333" s="2">
-        <f t="shared" ref="E333" si="330">DATE(YEAR(D333), MONTH(D333) + 4, DAY(D333))</f>
-        <v>45423</v>
+      <c r="E333" s="9">
+        <v>45985</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -7553,9 +7221,8 @@
       <c r="D334" s="2">
         <v>45302</v>
       </c>
-      <c r="E334" s="2">
-        <f t="shared" ref="E334" si="331">DATE(YEAR(D334), MONTH(D334) + 4, DAY(D334))</f>
-        <v>45423</v>
+      <c r="E334" s="9">
+        <v>45986</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -7571,9 +7238,8 @@
       <c r="D335" s="2">
         <v>45302</v>
       </c>
-      <c r="E335" s="2">
-        <f t="shared" ref="E335" si="332">DATE(YEAR(D335), MONTH(D335) + 4, DAY(D335))</f>
-        <v>45423</v>
+      <c r="E335" s="9">
+        <v>45987</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -7589,9 +7255,8 @@
       <c r="D336" s="2">
         <v>45302</v>
       </c>
-      <c r="E336" s="2">
-        <f t="shared" ref="E336" si="333">DATE(YEAR(D336), MONTH(D336) + 4, DAY(D336))</f>
-        <v>45423</v>
+      <c r="E336" s="9">
+        <v>45988</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
@@ -7607,9 +7272,8 @@
       <c r="D337" s="2">
         <v>45303</v>
       </c>
-      <c r="E337" s="2">
-        <f t="shared" ref="E337" si="334">DATE(YEAR(D337), MONTH(D337) + 4, DAY(D337))</f>
-        <v>45424</v>
+      <c r="E337" s="9">
+        <v>45989</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
@@ -7625,9 +7289,8 @@
       <c r="D338" s="2">
         <v>45304</v>
       </c>
-      <c r="E338" s="2">
-        <f t="shared" ref="E338" si="335">DATE(YEAR(D338), MONTH(D338) + 4, DAY(D338))</f>
-        <v>45425</v>
+      <c r="E338" s="9">
+        <v>45990</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
@@ -7643,9 +7306,8 @@
       <c r="D339" s="2">
         <v>45305</v>
       </c>
-      <c r="E339" s="2">
-        <f t="shared" ref="E339" si="336">DATE(YEAR(D339), MONTH(D339) + 4, DAY(D339))</f>
-        <v>45426</v>
+      <c r="E339" s="9">
+        <v>45991</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
@@ -7661,9 +7323,8 @@
       <c r="D340" s="2">
         <v>45306</v>
       </c>
-      <c r="E340" s="2">
-        <f t="shared" ref="E340" si="337">DATE(YEAR(D340), MONTH(D340) + 4, DAY(D340))</f>
-        <v>45427</v>
+      <c r="E340" s="9">
+        <v>45992</v>
       </c>
     </row>
   </sheetData>
@@ -7674,6 +7335,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd2d7967-6bb1-4750-8a9f-187e642ad02f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100170141D56AF45B43A51FB9751A2A21DD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec4b7c40e3e734ad5846a37bda3aaadb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="34c740ac-635f-4d48-bf54-e596120b388d" xmlns:ns4="cd2d7967-6bb1-4750-8a9f-187e642ad02f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf2becb42876ad10e5269bd6715110e5" ns3:_="" ns4:_="">
     <xsd:import namespace="34c740ac-635f-4d48-bf54-e596120b388d"/>
@@ -7900,14 +7569,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd2d7967-6bb1-4750-8a9f-187e642ad02f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7918,6 +7579,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB13F1F4-FE9A-4D62-8079-AC8AF05EBF9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cd2d7967-6bb1-4750-8a9f-187e642ad02f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{841D18A8-169F-412A-95C7-11E2597331C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7936,16 +7607,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB13F1F4-FE9A-4D62-8079-AC8AF05EBF9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cd2d7967-6bb1-4750-8a9f-187e642ad02f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A0F196-A8A2-4610-8681-330E9A10F8E6}">
   <ds:schemaRefs>
